--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_399.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_399.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d12631366-Reviews-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>153</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Homewood-Suites-By-Hilton-Los-Angeles-International-Airport.h18952857.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_399.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_399.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="536">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1542 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r591776884-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>12631366</t>
+  </si>
+  <si>
+    <t>591776884</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Great hotel near airport.</t>
+  </si>
+  <si>
+    <t>Beautiful, modern hotel that far exceeded expectations.  The rooms and beds are great.  Nice lobby, advanced elevator system.  The breakfast room should be moved.  Ceilings too low, dimly lit.  Had a depressing feel.  Food was ok.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r591477268-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>591477268</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>The nicest Homewood Suites property</t>
+  </si>
+  <si>
+    <t>We visited Los Angeles June 2018 and stayed at this hotel - Homewood Suites LAX.  IT was the nicest hotel visit we've had in years.  The building is clean, modern, and bright.  We laughed at ourselves figuring out the elevators!  (fun)  Never had to wait.  We ordered room service and it was delivered by a robot!  That was fun.  Even though it's across from LAX, the place is quiet.  I never heard traffic or hall noise. The front desk staff was helpful and friendly.   The location is pretty far from Hollywood so if you are spending all your time on the Walk of Fame just know it's a trek.  Still, we had no problem with transportation.  For the price - this is the best and we will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>We visited Los Angeles June 2018 and stayed at this hotel - Homewood Suites LAX.  IT was the nicest hotel visit we've had in years.  The building is clean, modern, and bright.  We laughed at ourselves figuring out the elevators!  (fun)  Never had to wait.  We ordered room service and it was delivered by a robot!  That was fun.  Even though it's across from LAX, the place is quiet.  I never heard traffic or hall noise. The front desk staff was helpful and friendly.   The location is pretty far from Hollywood so if you are spending all your time on the Walk of Fame just know it's a trek.  Still, we had no problem with transportation.  For the price - this is the best and we will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r590842882-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>590842882</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Great airport hotel</t>
+  </si>
+  <si>
+    <t>Stayed here one night before an early flight on a business trip. It was a perfect location for an early flight and the shuttle to the airport was very convenient. Hotel looks new and nicer than an average Homewood Suites. Room was great and spacious. No complaints, would recommend if you need a hotel by the airport.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r586904505-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>586904505</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>A 5-star hotel close to LAX</t>
+  </si>
+  <si>
+    <t>Complimentary social hour 5-7 pm. Snack and a non-alcoholic drink. Complimentary breakfast. This is a 5-star hotel, a 5-star service and a 5-star restaurant. Breakfast bar is on the second floor. Overall a very good experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r586549400-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>586549400</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visiting LA for Yanni concert </t>
+  </si>
+  <si>
+    <t>We picked this place because it is literally walking distance from LAX airport. The rooms are huge and super clean. Bathroom is excellent and clean. Huge TV and free breakfast makes it worthwhile to stay here. The only disclaimer here is that because it is so close to airport sometimes it could be tricky going in and out of the hotel. Overall very good</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r586529223-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>586529223</t>
+  </si>
+  <si>
+    <t>Fabulous Hotel</t>
+  </si>
+  <si>
+    <t>Having a late arrival from Australia I chose to stay overnight at the Homewood Suites at LAX Airport.  One of the best decisions I have made.The Hotel is very new and modern, the staff are very attentive and my room was amazing.  I had a King sized bed and a huge room with a mini kitchen and the largest bathroom I have had at any hotel.There is a pick up and drop off shuttle to and from all the terminalsI have no hesitation in recommending this Hotel to anyone needing a stop over at LAX Airport.   I will definitely be staying there on my next trip.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r584600834-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>584600834</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Modern and clean, ultra-close to LAX but still quiet</t>
+  </si>
+  <si>
+    <t>Our flight came in late, so we stayed overnight here before driving home the next day.  It is unbelievably close to LAX and the shuttle came just a few minutes after we stepped outside.  We were only in a studio, but it was roomy.  Breakfast was nice and in a private location with helpful staff.  We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r583160646-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>583160646</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Our room was lovely. The bed was very comfortable. Breakfast was a bit puzzling. Plastic disposable bowls for the cereal. Lovely waffles and fruit salad. Parents letting their children run riot and jump all over the furniture on their shoes and the most dreadful pop music and hip hop, truly awful and you couldn’t get away from it. They need to consider putting softer instrumental music on. If you are not a family with children and don’t enjoy being jangled at breakfast then go up the road to the Westin, it’s calm, cool and old school.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Rachael H, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Our room was lovely. The bed was very comfortable. Breakfast was a bit puzzling. Plastic disposable bowls for the cereal. Lovely waffles and fruit salad. Parents letting their children run riot and jump all over the furniture on their shoes and the most dreadful pop music and hip hop, truly awful and you couldn’t get away from it. They need to consider putting softer instrumental music on. If you are not a family with children and don’t enjoy being jangled at breakfast then go up the road to the Westin, it’s calm, cool and old school.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r582942190-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>582942190</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Clean Hotel!</t>
+  </si>
+  <si>
+    <t>Enough said. Rooms were extremely clean and very well designed. Nice amenities. Beds were very comfortable and clean (I check the beds thoroughly for any unwelcome visitors). Stayed here four nights. Rental car company located on property. I rented form down the street at budget. I walked to and from facility. You can park at the hotel garage ( operated by joes parking) for $32 day and have in and out privileges. Complimentary breakfast every day. Quality too. Can’t say enough good things about the hotel itself. Walked to airport from hotel for a flight because traffic does back up. The hotel does offer a free shuttle. I do a lot of research when planning a trip. I rely heavily on reviews and how new a hotel is when I book. Price comes second . This hotel has the best of both worlds. The two cons are no liquor at their bar and none for sale in lobby. Also the pool is very small. But overall a great place to stay. You will not be disappointed. I will absolutely return in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Enough said. Rooms were extremely clean and very well designed. Nice amenities. Beds were very comfortable and clean (I check the beds thoroughly for any unwelcome visitors). Stayed here four nights. Rental car company located on property. I rented form down the street at budget. I walked to and from facility. You can park at the hotel garage ( operated by joes parking) for $32 day and have in and out privileges. Complimentary breakfast every day. Quality too. Can’t say enough good things about the hotel itself. Walked to airport from hotel for a flight because traffic does back up. The hotel does offer a free shuttle. I do a lot of research when planning a trip. I rely heavily on reviews and how new a hotel is when I book. Price comes second . This hotel has the best of both worlds. The two cons are no liquor at their bar and none for sale in lobby. Also the pool is very small. But overall a great place to stay. You will not be disappointed. I will absolutely return in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r580609284-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>580609284</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for its location. I purchased the stay, park and fly package. Everything came together like clockwork. Up at 3am, shuttle to airport at 4:45am. Return a week later. Pickup at 12:30pm, in car and on the road home by 1pm.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r580266694-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>580266694</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Perfect for our accessible needs!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our experience with Homewood Suites by Hilton at Los Angeles - was absolutely wonderful!  The hotel front desk staff was friendly and always willing to assist in any way (answering questions, etc.).  The valet staff were very helpful with our luggage and wheelchair.  The attendants in the breakfast area were always welcoming and cheerful.  The hotel room was absolutely fantastic.  The hotel suite was exactly as described, the space was tastefully furnished and the room was clean, welcoming and perfect for our needs.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r578710414-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>578710414</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Top-notch service</t>
+  </si>
+  <si>
+    <t>This is a great find at LAX. Rooms are huge, with full amenities, and family friendly. The sound proofing is amazing, and it's a five minute journey to most terminals. Food is very good. Comfortable lobby, business area and restaurant. What really sets it apart are the friendly, efficient, professional staff. All of them were great, but to specially mention a few who improved our stay - Angela, Mayra and Liz on the front desk, Alan and Gennessis in the lovely coffee shop, all the super-efficient breakfast team, and Emilio who fixed the dishwasher. We would definitely return on our next trip. Thank you Homewood Suites, expensive for us, but reasonable for this location, and worth every penny.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great find at LAX. Rooms are huge, with full amenities, and family friendly. The sound proofing is amazing, and it's a five minute journey to most terminals. Food is very good. Comfortable lobby, business area and restaurant. What really sets it apart are the friendly, efficient, professional staff. All of them were great, but to specially mention a few who improved our stay - Angela, Mayra and Liz on the front desk, Alan and Gennessis in the lovely coffee shop, all the super-efficient breakfast team, and Emilio who fixed the dishwasher. We would definitely return on our next trip. Thank you Homewood Suites, expensive for us, but reasonable for this location, and worth every penny.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r577883156-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>577883156</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Good place to spend the night after a long flight</t>
+  </si>
+  <si>
+    <t>Very good and clean facility, staff were friendly and nice, good size room with a very comfortable bed. Everything was just perfect wjth only one drawback which is the overcharged parking of $ 29 per night that is a rip-off</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r577500508-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>577500508</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Excellent location</t>
+  </si>
+  <si>
+    <t>Excellent location for easy in and out of LAX...only 1 hotel removed from airport access, so no issue with traffic or back up on Century Blvd.  Free shuttle from and to LAX.  Shuttle drivers pleasant and courteous. Quick check in and out, with pleasant staff.  Room clean.  Complimentary breakfast offered a nice variety of food options, not just a continental breakfast, but with eggs, bacon, oatmeal, yogurt, fruit, etc.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r576128059-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>576128059</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We just stayed at this brand new hotel!!! What an amazing experience.  The desk agents were great, the room clean and huge, the breakfast in the morning was plentiful. They even have a little robot named Hannah, that brings things to your door,  if you have forgotten anything.  The location is right next to the airport,  and the shuttles run every 15 minutes. There isn't a lot to do in the area, but Starline Tours will pick you up from the hotel. We could not of asked for more.  And the prices were very reasonable. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r575272470-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>575272470</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Great hotel and staff</t>
+  </si>
+  <si>
+    <t>Great new hotel with large suite rooms with all modern facilities. The staff were extremely friendly and always helpful. We stayed two nights, left some of our bags there while we went up to SF for a few days. Then stayed there on the way out of LA.Highly Recommended if you need to stay near LAX</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r574829523-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>574829523</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>Very comfortable accommodation. This hotel offers a fabulous proximity to the airport and rooms which are the size of an apartment. Granted we were in a suite but the kitchen had a dishwasher, huge fridge and every facility needed for self catering. There were really good reading chairs and lamps and the bed was enormously comfortable.Food in the restaurant was delicious and the wait staff were friendly and very helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r574724458-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>574724458</t>
+  </si>
+  <si>
+    <t>Clean, Well-Appointed, Good Breakfast</t>
+  </si>
+  <si>
+    <t>We were very satisfied with this property for an airport hotel, once we got there.  We got in very late (around 1am), so maybe the shuttle is more reliable at other hours, but we waited about 20 minutes and other hotel shuttles came around, but not this one.  Finally, a very nice driver from another hotel offered to drive us to ours, but when we arrived, the gentleman at the front desk (who was very sweet once he started helping us) was on another (hotel-related) call and made no effort to get off the phone to get us to our room more quickly.  Once we were in the room, however, it was excellent: the room was huge, exceptionally clean, and appointed with a very attractive kitchen including a microwave and dishes, silverware, etc.  The bathroom was beautiful and clean as well, and the bed was enormously comfortable (though all the pillows were uniformly stiff and overstuffed).  Would recommend.  It's also within walking distance of In-n-Out Burger on Sepulveda!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were very satisfied with this property for an airport hotel, once we got there.  We got in very late (around 1am), so maybe the shuttle is more reliable at other hours, but we waited about 20 minutes and other hotel shuttles came around, but not this one.  Finally, a very nice driver from another hotel offered to drive us to ours, but when we arrived, the gentleman at the front desk (who was very sweet once he started helping us) was on another (hotel-related) call and made no effort to get off the phone to get us to our room more quickly.  Once we were in the room, however, it was excellent: the room was huge, exceptionally clean, and appointed with a very attractive kitchen including a microwave and dishes, silverware, etc.  The bathroom was beautiful and clean as well, and the bed was enormously comfortable (though all the pillows were uniformly stiff and overstuffed).  Would recommend.  It's also within walking distance of In-n-Out Burger on Sepulveda!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r574278242-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>574278242</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Fantastic New Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very well accommodated hotel and the best part it is brand new! The room was very spacious and had a great little kitchen area. The restaurant down stairs was good. However they did mention that they are still waiting on their liquor license to get approved. Still a very nice hotel located next to LAX. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r574024857-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>574024857</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Great location and staff!</t>
+  </si>
+  <si>
+    <t>This location was perfect!  We were close to everything we wanted to see.  The staff was exceptionally helpful.  The rooms and lobby were wonderful.  We never heard the noise from the airport unless we were outside.  Highly recommend and would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r572971240-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>572971240</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Highly Recommended!</t>
+  </si>
+  <si>
+    <t>This was our first stay at the Homewood Suites in Los Angeles.  - prompt check-in- complimentary wi-fi- complimentary appetizer and drink- complimentary breakfast buffet - suite was spacious and nice (didn't hear the outside noise)- kitchenette had regular sized appliances and an island- decor was absolutely beautiful- very clean and modern- staff were all knowledgeable and friendlyIt was truly an AMAZING first impression!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r570918829-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>570918829</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>in LA for weekend</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, staff was very helpful and professional. room service was served by automated robot(very cool). location to airport is very convenient and shuttle service is fast. In LA for weekend wiht family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r570794344-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>570794344</t>
+  </si>
+  <si>
+    <t>Not very impressed</t>
+  </si>
+  <si>
+    <t>Hotel is newer hotel with lots of bells and whistles.  The front desk staff was nice but we had done a online check in for a room away from the elevator.  When we arrived after 4pm we were told our room wasnt ready but they would put us in a different room and it would also be away from the elevator.  I believe it was the one of the closest rooms to the elevator (516).  The view out the window was completely obstructed by the large metal sign on the side of the building.  The hotel was one of the noisiest hotels I have stayed the doors didn't have any mechanism to slow them from slamming and every time someone next to us opened their door there was a VERY loud slam that followed.  The bed was very soft, not uncomfortable but very soft.  The bathroom was nice and updated.  The pool is super small, the pictures on the website are deceiving. I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>InterstateHotels, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is newer hotel with lots of bells and whistles.  The front desk staff was nice but we had done a online check in for a room away from the elevator.  When we arrived after 4pm we were told our room wasnt ready but they would put us in a different room and it would also be away from the elevator.  I believe it was the one of the closest rooms to the elevator (516).  The view out the window was completely obstructed by the large metal sign on the side of the building.  The hotel was one of the noisiest hotels I have stayed the doors didn't have any mechanism to slow them from slamming and every time someone next to us opened their door there was a VERY loud slam that followed.  The bed was very soft, not uncomfortable but very soft.  The bathroom was nice and updated.  The pool is super small, the pictures on the website are deceiving. I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r570587360-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>570587360</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Pluses and minuses</t>
+  </si>
+  <si>
+    <t>Overall I did like this hotel. The room was clean, well appointed, and as comfortable as any. It’s situated in a really good spot for the airport, and also for any trips outside of LA. I saw one review call the neighborhood “sketchy”, but I never felt unsafe. On the downside ( depending upon your needs &amp; opinions)— the pool is weirdly located, outside the front door and adjacent to the road ( I’m Sure it’s the only space they had).  Also the parking garage needs serious updating ( the elevators are scary, and the traffic patterns a bit wonky). Did not use onsite restaurant, so no opinion there. Overall I felt this was a good choice for us ( college visits/ hiking/ visiting).  MoreShow less</t>
+  </si>
+  <si>
+    <t>InterstateHotels, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Overall I did like this hotel. The room was clean, well appointed, and as comfortable as any. It’s situated in a really good spot for the airport, and also for any trips outside of LA. I saw one review call the neighborhood “sketchy”, but I never felt unsafe. On the downside ( depending upon your needs &amp; opinions)— the pool is weirdly located, outside the front door and adjacent to the road ( I’m Sure it’s the only space they had).  Also the parking garage needs serious updating ( the elevators are scary, and the traffic patterns a bit wonky). Did not use onsite restaurant, so no opinion there. Overall I felt this was a good choice for us ( college visits/ hiking/ visiting).  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r569585676-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>569585676</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>For An Airport Hotel This Place Exceeds Expectations</t>
+  </si>
+  <si>
+    <t>Stayed one night before an early early early flight out of LAX. Wish we could have spent more time here.  New hotel, super friendly staff, clean room with high ceilings and a nice little kitchen.  Will be back if ever th  need presents itself.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r569580810-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>569580810</t>
+  </si>
+  <si>
+    <t>New and clean</t>
+  </si>
+  <si>
+    <t>Awesome hotel. Modern features, helpful staff. The price I'd a little more than other LAX hotels, but it's a suite, and everything is brand new. Well stocked with kitchen utensils, keurig coffee machine, smart tv, etc. Great for out family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r568776519-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>568776519</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>VISIT WITH SON LAST COUPLE DAYS OF SPRING BREAK - LEISURE</t>
+  </si>
+  <si>
+    <t>We spent last couple of days of Spring Break in LA from 14-17 March 2018.  Since our last visit, we have decided to make it a point to stay at a hotel near the airport.  Being near the airport was quite convenient, especially, when the hotel provides a 24 hour shuttle, but, most importantly, it allows us not to deal with the unexpected traffic situations you may encounter, when having to catch a flight. 
+I must say that the Homewood Suites by Hilton Los Angeles International Airport is Amazing! 1 to 2 minutes from Airport and about 5 to 10 minute (with traffic lights) drive from rental car companies.  Tons of places to dine and are close to the hotel. Complimentary Full Breakfast every morning from 6:00-9:00AM (Each day) was a Plus.  Evening Social from Monday-Thursday.  (NOTE:  They are still waiting on their Alcohol License to start selling alcohol at the hotel, but not to worry, you can always buy outside and bring to your room.  Close to Manhattan Beach, Santa Monica Pier, etc.
+Room: Still retains the brand new aroma smell! We had 2 Queen Beds on the 5th floor, Room 511 (View of parking lot and parking garage).  Very quiet.  Rooms were very CLEAN and Spacious.  windows are huge.  Ceilings were higher than typical hotel rooms.  They have dressers with a full size closet.  55/60 inch tv.  A Full size kitchen, with full size refrigerator with Ice Maker,...We spent last couple of days of Spring Break in LA from 14-17 March 2018.  Since our last visit, we have decided to make it a point to stay at a hotel near the airport.  Being near the airport was quite convenient, especially, when the hotel provides a 24 hour shuttle, but, most importantly, it allows us not to deal with the unexpected traffic situations you may encounter, when having to catch a flight. I must say that the Homewood Suites by Hilton Los Angeles International Airport is Amazing! 1 to 2 minutes from Airport and about 5 to 10 minute (with traffic lights) drive from rental car companies.  Tons of places to dine and are close to the hotel. Complimentary Full Breakfast every morning from 6:00-9:00AM (Each day) was a Plus.  Evening Social from Monday-Thursday.  (NOTE:  They are still waiting on their Alcohol License to start selling alcohol at the hotel, but not to worry, you can always buy outside and bring to your room.  Close to Manhattan Beach, Santa Monica Pier, etc.Room: Still retains the brand new aroma smell! We had 2 Queen Beds on the 5th floor, Room 511 (View of parking lot and parking garage).  Very quiet.  Rooms were very CLEAN and Spacious.  windows are huge.  Ceilings were higher than typical hotel rooms.  They have dressers with a full size closet.  55/60 inch tv.  A Full size kitchen, with full size refrigerator with Ice Maker, microwave, 2 range burners, dishwasher, pots, pans, utensils and Keurig. The kitchen was a huge PLUS, since we were able to buy groceries and prepare meals, rather than always eating out.  table seating 4 easily.  Bathrooms were spacious.  Glass sliding doors for showers.  Complimentary Shampoo, soap and lotion provided.Amenities: PARKING:  Valet $44.00/Self Parking $31.90.  Business Center, Gym (Small), Pool (Small), ATM, Coffee Bean &amp; Tea Leaf and Subway on back side of hotel, Mini store.For Military families, the convenience of the Los Angeles Air Force Base is a PLUS. About 10/15 min from the hotel. A full size Base Exchange/Food Court and Commissary. Medical Facilities, etc. I believe they open from 1000AM-6:00PM.On site Laundry facility - Not a Coin Laundry.  Takes only Credit/Debit Cards.  I used facilities twice.  29 Min (Wash) and 60 Min (Dryer).  I believe they had 8 washers and 8 dryers.  I was quite satisfied with the laundromat, Very CLEAN and well maintained.You will NOT regret staying at the Homewood Suites by Hilton Los Angeles International Airport. This is a Great option for business folks or families. My family and I enjoyed our stay and will definitely be staying here on our next visit to LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent last couple of days of Spring Break in LA from 14-17 March 2018.  Since our last visit, we have decided to make it a point to stay at a hotel near the airport.  Being near the airport was quite convenient, especially, when the hotel provides a 24 hour shuttle, but, most importantly, it allows us not to deal with the unexpected traffic situations you may encounter, when having to catch a flight. 
+I must say that the Homewood Suites by Hilton Los Angeles International Airport is Amazing! 1 to 2 minutes from Airport and about 5 to 10 minute (with traffic lights) drive from rental car companies.  Tons of places to dine and are close to the hotel. Complimentary Full Breakfast every morning from 6:00-9:00AM (Each day) was a Plus.  Evening Social from Monday-Thursday.  (NOTE:  They are still waiting on their Alcohol License to start selling alcohol at the hotel, but not to worry, you can always buy outside and bring to your room.  Close to Manhattan Beach, Santa Monica Pier, etc.
+Room: Still retains the brand new aroma smell! We had 2 Queen Beds on the 5th floor, Room 511 (View of parking lot and parking garage).  Very quiet.  Rooms were very CLEAN and Spacious.  windows are huge.  Ceilings were higher than typical hotel rooms.  They have dressers with a full size closet.  55/60 inch tv.  A Full size kitchen, with full size refrigerator with Ice Maker,...We spent last couple of days of Spring Break in LA from 14-17 March 2018.  Since our last visit, we have decided to make it a point to stay at a hotel near the airport.  Being near the airport was quite convenient, especially, when the hotel provides a 24 hour shuttle, but, most importantly, it allows us not to deal with the unexpected traffic situations you may encounter, when having to catch a flight. I must say that the Homewood Suites by Hilton Los Angeles International Airport is Amazing! 1 to 2 minutes from Airport and about 5 to 10 minute (with traffic lights) drive from rental car companies.  Tons of places to dine and are close to the hotel. Complimentary Full Breakfast every morning from 6:00-9:00AM (Each day) was a Plus.  Evening Social from Monday-Thursday.  (NOTE:  They are still waiting on their Alcohol License to start selling alcohol at the hotel, but not to worry, you can always buy outside and bring to your room.  Close to Manhattan Beach, Santa Monica Pier, etc.Room: Still retains the brand new aroma smell! We had 2 Queen Beds on the 5th floor, Room 511 (View of parking lot and parking garage).  Very quiet.  Rooms were very CLEAN and Spacious.  windows are huge.  Ceilings were higher than typical hotel rooms.  They have dressers with a full size closet.  55/60 inch tv.  A Full size kitchen, with full size refrigerator with Ice Maker, microwave, 2 range burners, dishwasher, pots, pans, utensils and Keurig. The kitchen was a huge PLUS, since we were able to buy groceries and prepare meals, rather than always eating out.  table seating 4 easily.  Bathrooms were spacious.  Glass sliding doors for showers.  Complimentary Shampoo, soap and lotion provided.Amenities: PARKING:  Valet $44.00/Self Parking $31.90.  Business Center, Gym (Small), Pool (Small), ATM, Coffee Bean &amp; Tea Leaf and Subway on back side of hotel, Mini store.For Military families, the convenience of the Los Angeles Air Force Base is a PLUS. About 10/15 min from the hotel. A full size Base Exchange/Food Court and Commissary. Medical Facilities, etc. I believe they open from 1000AM-6:00PM.On site Laundry facility - Not a Coin Laundry.  Takes only Credit/Debit Cards.  I used facilities twice.  29 Min (Wash) and 60 Min (Dryer).  I believe they had 8 washers and 8 dryers.  I was quite satisfied with the laundromat, Very CLEAN and well maintained.You will NOT regret staying at the Homewood Suites by Hilton Los Angeles International Airport. This is a Great option for business folks or families. My family and I enjoyed our stay and will definitely be staying here on our next visit to LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r566260720-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>566260720</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Great Visit!</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights recently. The free shuttle from the airport took a little while to arrive as I had just missed one. Make sure you locate the red signs saying "Hotel Shuttles".  The journey took less than 10 mins. Check-in was ok. Room was adequate with a king size bed and kitchen facilities and modern bathroom. There was a living area with a sofa and huge widescreen TV.  Breakfast room was a little hard to find at first but once you know where it is, you're set. It is off to the side of the elevators on the second floor.  Breakfast items were adequate and set you up for the day.  The breakfast staff are very friendly and pleasant.  There is a coffee shop and Subway shop adjacent to the hotel and there is not much in the immediate vicinity but there is a Bus Station located behind the hotel about a 10 min walk and there are buses that can take you to Santa Monica etc. There is also a CVS and Ralphs Supermarket and other shops about a 15 min walk in an area called Westchester Village. The Hop On-Hop Off Stop sightseeing buses also stop nearby which is handy if you want to visit Hollywood etc.I will definitely return to this hotel as its proximity to the airport makes it an ideal location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights recently. The free shuttle from the airport took a little while to arrive as I had just missed one. Make sure you locate the red signs saying "Hotel Shuttles".  The journey took less than 10 mins. Check-in was ok. Room was adequate with a king size bed and kitchen facilities and modern bathroom. There was a living area with a sofa and huge widescreen TV.  Breakfast room was a little hard to find at first but once you know where it is, you're set. It is off to the side of the elevators on the second floor.  Breakfast items were adequate and set you up for the day.  The breakfast staff are very friendly and pleasant.  There is a coffee shop and Subway shop adjacent to the hotel and there is not much in the immediate vicinity but there is a Bus Station located behind the hotel about a 10 min walk and there are buses that can take you to Santa Monica etc. There is also a CVS and Ralphs Supermarket and other shops about a 15 min walk in an area called Westchester Village. The Hop On-Hop Off Stop sightseeing buses also stop nearby which is handy if you want to visit Hollywood etc.I will definitely return to this hotel as its proximity to the airport makes it an ideal location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r564776144-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>564776144</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying in this very clean and modern property.  Both the kitchen and bathroom appeared upgraded with stainless appliances and a huge shower.  Also, because we stayed in a corner suite, we had lots of large windows and natural light. Oh and they have this cool robot named Hannah, who delivered water to our room.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r563229100-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>563229100</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Modern &amp; clean hotel</t>
+  </si>
+  <si>
+    <t>Great staff on check in - didn't have to wait long for shuttle to hotel from airport. Studio suite was clean, modern and spotlessly clean. TV was huge. Bathroom/shower was great.Bed comfortable. Room was a little sterile/business like but it did the job for us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r561738016-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>561738016</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Went to Cali for the weekend with the family. Hotel is beautiful and modern. Overall experience was good. Special thanks to Alfredo from the restaurant he treated us like royalty and also Elen from the front desk she was very caring and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>InterstateHotels, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Went to Cali for the weekend with the family. Hotel is beautiful and modern. Overall experience was good. Special thanks to Alfredo from the restaurant he treated us like royalty and also Elen from the front desk she was very caring and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r561563073-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>561563073</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>NYE</t>
+  </si>
+  <si>
+    <t>I found this Hotel on New Year’s Eve. I made a reservation through one of those 3rd party apps that didn’t pan out but anyway. I found it online so I called and made a reservation(I got really lucky on NYE), running around like a chicken with its head cut off. So I was able to reserve the room in which I thought would be super expensive b/c it was NYE. I was impressed with having to use the key card to get on the elevator to get to my room. So I checked in and went up stairs and when I tell you I couldn’t believe how beautiful this room was it was super clean and nice decor. Since I’ve been duped by other Hotels I did a thorough check. The bathroom was CLEAN no dirt in the tub, the toilet was clean and no ring around the inside and the sink was clean to. I even checked the kitchenette. Microwave,dishes, fridge, stove and the counter was excellent.  I love to go to nice hotels and stay overnight. I just spent Valentines Day here and it was just as nice. I will return and recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>I found this Hotel on New Year’s Eve. I made a reservation through one of those 3rd party apps that didn’t pan out but anyway. I found it online so I called and made a reservation(I got really lucky on NYE), running around like a chicken with its head cut off. So I was able to reserve the room in which I thought would be super expensive b/c it was NYE. I was impressed with having to use the key card to get on the elevator to get to my room. So I checked in and went up stairs and when I tell you I couldn’t believe how beautiful this room was it was super clean and nice decor. Since I’ve been duped by other Hotels I did a thorough check. The bathroom was CLEAN no dirt in the tub, the toilet was clean and no ring around the inside and the sink was clean to. I even checked the kitchenette. Microwave,dishes, fridge, stove and the counter was excellent.  I love to go to nice hotels and stay overnight. I just spent Valentines Day here and it was just as nice. I will return and recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r561119164-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>561119164</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>A perfect choice for the night before an early flight</t>
+  </si>
+  <si>
+    <t>Spacious room, big bath room, excellent shuttles to car rentals and terminals. Very comfortable indeed. The only lacking service is a decent restaurant, the present one has no license for alcoholic beverages and it has no soup on the menu, the bestthing after a long flight. I hope that this will be improved soon to offer the tired traveler an excellent respite before the next flight.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r557657220-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>557657220</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel</t>
+  </si>
+  <si>
+    <t>It was my first time staying at this new hotel great location the transportation from LAX to the airport was like five minutes the van driver was friendly and informative unfortunately the girls at check-in desk where not no welcome as a diamond member More interested in chatting then checking me in. But my roommate was great plenty of room light Brite great bathroom but without a doubt the best part of my stay was jem Who works in the breakfast area she came over to my table to inform me that breakfast was finishing in 10 minutes if I would like anything else please help myself now she was very informative very friendly with so much enthusiasm for this new hotel she was telling me she was hoping to transfer to front desk after my experience I hope she does  I would definitely stay at this hotel again and hopefully Jem will be there to welcome me next time at front deskMoreShow less</t>
+  </si>
+  <si>
+    <t>It was my first time staying at this new hotel great location the transportation from LAX to the airport was like five minutes the van driver was friendly and informative unfortunately the girls at check-in desk where not no welcome as a diamond member More interested in chatting then checking me in. But my roommate was great plenty of room light Brite great bathroom but without a doubt the best part of my stay was jem Who works in the breakfast area she came over to my table to inform me that breakfast was finishing in 10 minutes if I would like anything else please help myself now she was very informative very friendly with so much enthusiasm for this new hotel she was telling me she was hoping to transfer to front desk after my experience I hope she does  I would definitely stay at this hotel again and hopefully Jem will be there to welcome me next time at front deskMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r557593700-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>557593700</t>
+  </si>
+  <si>
+    <t>Long stay, but went smoothly</t>
+  </si>
+  <si>
+    <t>Nice clean hotel. Loved the full kitchen option. Free hot breakfast was a hit! Had a great variety each day of my 10 day stay. Only issue I encountered was being charged for parking when I didn’t use their parking lot, but the charges were reversed.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r557384712-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>557384712</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Great Staff, Great Room, Great Price</t>
+  </si>
+  <si>
+    <t>The staff at this location were helpful and friendly. My husband was sick for the first part of the stay and the staff all showed concern for him and checked on us regularly. The room was clean and spacious, very relaxing and comfortable. There was a complimentary breakfast that changed every morning and was great! There was a shop down in the lobby that gave us everything we needed that we didn't bring with us and was crucial due to my husband being ill. We very much enjoyed our stay here and will definitely be staying again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r555723365-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>555723365</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Bright, new, shiny hotel steps from LAX</t>
+  </si>
+  <si>
+    <t>if you want spacious, brand new (it smells new when you open the door to your room!) and as close to the airport as you can get, this is the hotel for you.  the reason i didn't give it 5 stars:
+- homewood and h hotel share the building and there are 2 checkin desks right next to each other.  late at night, only one was open.  all a bit confusing.  i think each hotel takes different floors; maybe h hotels are a bit cheaper, are not suites, do not have access to room w free breakfast, etc.
+- the hotel shuttle took over 40min late at night, while i saw other hotels with shuttles pass by multiple times.  shuttles in the morning were great.
+- rooms are LOUD with airplane noise, if that bothers you.
+- the breakfast room is just strange.  it seems like it's in a couple of converted hotel rooms on the 2nd floor (not in the  lobby), and is accessible with your room key.  food is ok - 2 types of eggs, some sad fruit and a small bowl of yogurt, watery oatmeal, turkey sausage (no bacon), potatoes, waffle maker, bread/bagels, coffee/tea and juices. basic but nothing to write home about.  service in the breakfast room was very good; workers were friendly and cleared dishes quickly.
+i also stayed at the residence inn very recently; rooms at homewood are nicer and newer but breakfast was...if you want spacious, brand new (it smells new when you open the door to your room!) and as close to the airport as you can get, this is the hotel for you.  the reason i didn't give it 5 stars:- homewood and h hotel share the building and there are 2 checkin desks right next to each other.  late at night, only one was open.  all a bit confusing.  i think each hotel takes different floors; maybe h hotels are a bit cheaper, are not suites, do not have access to room w free breakfast, etc.- the hotel shuttle took over 40min late at night, while i saw other hotels with shuttles pass by multiple times.  shuttles in the morning were great.- rooms are LOUD with airplane noise, if that bothers you.- the breakfast room is just strange.  it seems like it's in a couple of converted hotel rooms on the 2nd floor (not in the  lobby), and is accessible with your room key.  food is ok - 2 types of eggs, some sad fruit and a small bowl of yogurt, watery oatmeal, turkey sausage (no bacon), potatoes, waffle maker, bread/bagels, coffee/tea and juices. basic but nothing to write home about.  service in the breakfast room was very good; workers were friendly and cleared dishes quickly.i also stayed at the residence inn very recently; rooms at homewood are nicer and newer but breakfast was better at residence inn.  either would do for a layover, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>if you want spacious, brand new (it smells new when you open the door to your room!) and as close to the airport as you can get, this is the hotel for you.  the reason i didn't give it 5 stars:
+- homewood and h hotel share the building and there are 2 checkin desks right next to each other.  late at night, only one was open.  all a bit confusing.  i think each hotel takes different floors; maybe h hotels are a bit cheaper, are not suites, do not have access to room w free breakfast, etc.
+- the hotel shuttle took over 40min late at night, while i saw other hotels with shuttles pass by multiple times.  shuttles in the morning were great.
+- rooms are LOUD with airplane noise, if that bothers you.
+- the breakfast room is just strange.  it seems like it's in a couple of converted hotel rooms on the 2nd floor (not in the  lobby), and is accessible with your room key.  food is ok - 2 types of eggs, some sad fruit and a small bowl of yogurt, watery oatmeal, turkey sausage (no bacon), potatoes, waffle maker, bread/bagels, coffee/tea and juices. basic but nothing to write home about.  service in the breakfast room was very good; workers were friendly and cleared dishes quickly.
+i also stayed at the residence inn very recently; rooms at homewood are nicer and newer but breakfast was...if you want spacious, brand new (it smells new when you open the door to your room!) and as close to the airport as you can get, this is the hotel for you.  the reason i didn't give it 5 stars:- homewood and h hotel share the building and there are 2 checkin desks right next to each other.  late at night, only one was open.  all a bit confusing.  i think each hotel takes different floors; maybe h hotels are a bit cheaper, are not suites, do not have access to room w free breakfast, etc.- the hotel shuttle took over 40min late at night, while i saw other hotels with shuttles pass by multiple times.  shuttles in the morning were great.- rooms are LOUD with airplane noise, if that bothers you.- the breakfast room is just strange.  it seems like it's in a couple of converted hotel rooms on the 2nd floor (not in the  lobby), and is accessible with your room key.  food is ok - 2 types of eggs, some sad fruit and a small bowl of yogurt, watery oatmeal, turkey sausage (no bacon), potatoes, waffle maker, bread/bagels, coffee/tea and juices. basic but nothing to write home about.  service in the breakfast room was very good; workers were friendly and cleared dishes quickly.i also stayed at the residence inn very recently; rooms at homewood are nicer and newer but breakfast was better at residence inn.  either would do for a layover, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r555177041-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>555177041</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Not what I would have expected from Homewood Suites</t>
+  </si>
+  <si>
+    <t>I only stayed here for one night - catching a flight out early the next morning…
+This Hotel is newly remodeled with another hotel "The H Hotel" contained within; although I could not tell where one was different than the other?
+The room was clean, big and roomy, but it had seemed as if I was next to the LAX tarmac. 
+OK I get it! A hotel by the airport you would expect some airplane noise but at-least they would have sound proofed the rooms better or the windows?
+The bathroom door was closed so when I opened it there was a pungent odor that permeated. It was not sewer but a chemical smell, very unpleasant.
+I left the bathroom fan run and went out with my associates for dinner. When I came back it was less noticeable.
+No less, my sleep was not pleasant because of the noise of LAX and the pillow comfort. The pillow are too soft for me and my head sinks way down in these. 
+As a side and stomach sleeper these pillows will not do. Unfortunately, and like some other properties, there were no firmer pillows to choose from.
+Since they are newly remodeled the in house restaurant did not have a liquor license, yet. 
+Searched on Yelp showed a few other properties nearby that had full service restaurants. We chose the Hyatt Hotel right next door. See my review on this fine dining....I only stayed here for one night - catching a flight out early the next morning…This Hotel is newly remodeled with another hotel "The H Hotel" contained within; although I could not tell where one was different than the other?The room was clean, big and roomy, but it had seemed as if I was next to the LAX tarmac. OK I get it! A hotel by the airport you would expect some airplane noise but at-least they would have sound proofed the rooms better or the windows?The bathroom door was closed so when I opened it there was a pungent odor that permeated. It was not sewer but a chemical smell, very unpleasant.I left the bathroom fan run and went out with my associates for dinner. When I came back it was less noticeable.No less, my sleep was not pleasant because of the noise of LAX and the pillow comfort. The pillow are too soft for me and my head sinks way down in these. As a side and stomach sleeper these pillows will not do. Unfortunately, and like some other properties, there were no firmer pillows to choose from.Since they are newly remodeled the in house restaurant did not have a liquor license, yet. Searched on Yelp showed a few other properties nearby that had full service restaurants. We chose the Hyatt Hotel right next door. See my review on this fine dining.To make matters worse the breakfast in the Hilton Lodge was terrible. Only one choice of yogurt, it was slopped in a shallow tray. very unappealing. The hot entries were not appetizing . I ended up having the oatmeal which was watery. Very Disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>InterstateHotels, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>I only stayed here for one night - catching a flight out early the next morning…
+This Hotel is newly remodeled with another hotel "The H Hotel" contained within; although I could not tell where one was different than the other?
+The room was clean, big and roomy, but it had seemed as if I was next to the LAX tarmac. 
+OK I get it! A hotel by the airport you would expect some airplane noise but at-least they would have sound proofed the rooms better or the windows?
+The bathroom door was closed so when I opened it there was a pungent odor that permeated. It was not sewer but a chemical smell, very unpleasant.
+I left the bathroom fan run and went out with my associates for dinner. When I came back it was less noticeable.
+No less, my sleep was not pleasant because of the noise of LAX and the pillow comfort. The pillow are too soft for me and my head sinks way down in these. 
+As a side and stomach sleeper these pillows will not do. Unfortunately, and like some other properties, there were no firmer pillows to choose from.
+Since they are newly remodeled the in house restaurant did not have a liquor license, yet. 
+Searched on Yelp showed a few other properties nearby that had full service restaurants. We chose the Hyatt Hotel right next door. See my review on this fine dining....I only stayed here for one night - catching a flight out early the next morning…This Hotel is newly remodeled with another hotel "The H Hotel" contained within; although I could not tell where one was different than the other?The room was clean, big and roomy, but it had seemed as if I was next to the LAX tarmac. OK I get it! A hotel by the airport you would expect some airplane noise but at-least they would have sound proofed the rooms better or the windows?The bathroom door was closed so when I opened it there was a pungent odor that permeated. It was not sewer but a chemical smell, very unpleasant.I left the bathroom fan run and went out with my associates for dinner. When I came back it was less noticeable.No less, my sleep was not pleasant because of the noise of LAX and the pillow comfort. The pillow are too soft for me and my head sinks way down in these. As a side and stomach sleeper these pillows will not do. Unfortunately, and like some other properties, there were no firmer pillows to choose from.Since they are newly remodeled the in house restaurant did not have a liquor license, yet. Searched on Yelp showed a few other properties nearby that had full service restaurants. We chose the Hyatt Hotel right next door. See my review on this fine dining.To make matters worse the breakfast in the Hilton Lodge was terrible. Only one choice of yogurt, it was slopped in a shallow tray. very unappealing. The hot entries were not appetizing . I ended up having the oatmeal which was watery. Very Disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r555089075-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>555089075</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>A great layover!</t>
+  </si>
+  <si>
+    <t>We decided to have 1 night at the hotel to rest before our flight back to Australia. This hotel was perfect for this. Big clean room, free breakfast, evening drink and the pool was a nice touch! The free shuttle made LAX a little less stressful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r554452234-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>554452234</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing hotel! Suites were clean and had everything you can need - especially if travelling with children. I didn't use the kitchen much, but thought it was a great feature. Staff is friendly. Only downside was no hot tub and very expensive parking. Otherwise, I will be returning with my kids very soon! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r554401241-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>554401241</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Homewood Suites; once in December 2017 on our way out of the country and again in January 2018 on our way back.  We had a long lay over and thought we'd spend the night at a nearby hotel to LAX rather than stay in the terminal.
+To get to the hotel, easy access.  Just walk outside to the curb from baggage claim and wait under the red sign for hotel shuttle.  Very short drive since the hotel is right off of the airport property.  All of a 10-minute ride.
+Very modern hotel; the most modern we've ever stayed.  The first stay was a point reward stay and the second was a paid stay.
+The first stay, the reservation was in order.  Was in the room in less than 10-minutes.  The second stay, took a bit longer.  At first said I didn't have a reservation and the hotel was sold out.  But then, voila!  my reservation was found.  Suspect.
+The room is a mini apartment.  The only regret is we only spent a few hours.  Very comfortable room.  Lots and lots of space.
+The first time, we had a room w/ two double beds.  Even though the 2nd reservation was for 2 double beds, had a king and a sofa bed.  We are a party of 3.
+A call to the front desk and bedding was brought up for the sofa bed.  Since we were in the...We stayed at the Homewood Suites; once in December 2017 on our way out of the country and again in January 2018 on our way back.  We had a long lay over and thought we'd spend the night at a nearby hotel to LAX rather than stay in the terminal.To get to the hotel, easy access.  Just walk outside to the curb from baggage claim and wait under the red sign for hotel shuttle.  Very short drive since the hotel is right off of the airport property.  All of a 10-minute ride.Very modern hotel; the most modern we've ever stayed.  The first stay was a point reward stay and the second was a paid stay.The first stay, the reservation was in order.  Was in the room in less than 10-minutes.  The second stay, took a bit longer.  At first said I didn't have a reservation and the hotel was sold out.  But then, voila!  my reservation was found.  Suspect.The room is a mini apartment.  The only regret is we only spent a few hours.  Very comfortable room.  Lots and lots of space.The first time, we had a room w/ two double beds.  Even though the 2nd reservation was for 2 double beds, had a king and a sofa bed.  We are a party of 3.A call to the front desk and bedding was brought up for the sofa bed.  Since we were in the room less than 6 hours it was fine.The elevators are some of the most interesting I've ever seen.  Since we left the hotel before 6:00AM both times, we missed the breakfast buffet.Very easy to catch the shuttle back to the airport.Would stay again but be careful of your reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Homewood Suites; once in December 2017 on our way out of the country and again in January 2018 on our way back.  We had a long lay over and thought we'd spend the night at a nearby hotel to LAX rather than stay in the terminal.
+To get to the hotel, easy access.  Just walk outside to the curb from baggage claim and wait under the red sign for hotel shuttle.  Very short drive since the hotel is right off of the airport property.  All of a 10-minute ride.
+Very modern hotel; the most modern we've ever stayed.  The first stay was a point reward stay and the second was a paid stay.
+The first stay, the reservation was in order.  Was in the room in less than 10-minutes.  The second stay, took a bit longer.  At first said I didn't have a reservation and the hotel was sold out.  But then, voila!  my reservation was found.  Suspect.
+The room is a mini apartment.  The only regret is we only spent a few hours.  Very comfortable room.  Lots and lots of space.
+The first time, we had a room w/ two double beds.  Even though the 2nd reservation was for 2 double beds, had a king and a sofa bed.  We are a party of 3.
+A call to the front desk and bedding was brought up for the sofa bed.  Since we were in the...We stayed at the Homewood Suites; once in December 2017 on our way out of the country and again in January 2018 on our way back.  We had a long lay over and thought we'd spend the night at a nearby hotel to LAX rather than stay in the terminal.To get to the hotel, easy access.  Just walk outside to the curb from baggage claim and wait under the red sign for hotel shuttle.  Very short drive since the hotel is right off of the airport property.  All of a 10-minute ride.Very modern hotel; the most modern we've ever stayed.  The first stay was a point reward stay and the second was a paid stay.The first stay, the reservation was in order.  Was in the room in less than 10-minutes.  The second stay, took a bit longer.  At first said I didn't have a reservation and the hotel was sold out.  But then, voila!  my reservation was found.  Suspect.The room is a mini apartment.  The only regret is we only spent a few hours.  Very comfortable room.  Lots and lots of space.The first time, we had a room w/ two double beds.  Even though the 2nd reservation was for 2 double beds, had a king and a sofa bed.  We are a party of 3.A call to the front desk and bedding was brought up for the sofa bed.  Since we were in the room less than 6 hours it was fine.The elevators are some of the most interesting I've ever seen.  Since we left the hotel before 6:00AM both times, we missed the breakfast buffet.Very easy to catch the shuttle back to the airport.Would stay again but be careful of your reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r554295375-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>554295375</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Perfect for family getaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very spacious room and apartment like feel of the immaculately clean room! We loved the big screen TV and all the channel choices, along with the comfortable beds and sofa sleeper. My husband, three children, and I were very comfortable in our beautiful accommodations! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r552046450-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>552046450</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Modern and Clean</t>
+  </si>
+  <si>
+    <t>Very Clean and Modern Hotel. AAA+++ on Hotel looks. Excellent Shuttle service and Staff friendliness. Close to LAX as noted. Traffic noise cam be an issue with front facing rooms as mine was. Coffee in room but no Tea.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r551555103-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>551555103</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Brain New hotel Writh On the AirportVery nice and eficient The breakfadt îs a dizasterThe rest îs excelent The service to the AirPort very goodAll the ține every 20 minutsVery nice staff that jumping to help</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r551216024-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>551216024</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Perfect for a one night stay after a late arrival</t>
+  </si>
+  <si>
+    <t>Just a few minutes from the terminals and there is a hotel shuttle.  The hotel is either new or newly remodeled with a modern but appealing design.  Large comfortable rooms with a good size HDTV.  Breakfast was good.  We stayed here after a late arrival and it was perfect for our needs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r549717651-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>549717651</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Airport Convenience</t>
+  </si>
+  <si>
+    <t>Great location for early morning travelers leaving LAX or late arrivals to LAX.  Beat LAX traffic. Rest in quiet and comfort. Staff were very helpful and attentive. The hotel  restaurant food was above average.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r549628584-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>549628584</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Great service  A Good Choice</t>
+  </si>
+  <si>
+    <t>Stayed one night as we were flying out the next day.  Room was large, very comfortable, And very clean.  Staff was a delight and couldn’t be nicer. There is parking next door- for an extra fee. Would stay here again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r549573049-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>549573049</t>
+  </si>
+  <si>
+    <t>Sparse, but nice for a short stay</t>
+  </si>
+  <si>
+    <t>This is actually a very nice new hotel.  I stopped by for a few nights during a quick LA stopover.  I know this is a new property, but it seemed a bit sparse...room setup and decor, breakfast in the lounge, etc;  My impression was an attempt to save money and keep room rates low.  Fair enough.  That said, other impressions.  I found the front desk staff somewhat uneven.  Daytime staff seemed to welcome the interaction and some of the later afternoon staff worked to avoid contact in the event I should ask them for something.  The breakfast was not extensive, but warm and the staff policed the area quite well.  One tip for visitors - try to get there early.  The space comfortable but if there are families there you might have to wait for some food items.  The location is excellent and very close to the airport.  That said, - yes, I will stay here in the future.  I hope to encounter more of the friendly staff next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is actually a very nice new hotel.  I stopped by for a few nights during a quick LA stopover.  I know this is a new property, but it seemed a bit sparse...room setup and decor, breakfast in the lounge, etc;  My impression was an attempt to save money and keep room rates low.  Fair enough.  That said, other impressions.  I found the front desk staff somewhat uneven.  Daytime staff seemed to welcome the interaction and some of the later afternoon staff worked to avoid contact in the event I should ask them for something.  The breakfast was not extensive, but warm and the staff policed the area quite well.  One tip for visitors - try to get there early.  The space comfortable but if there are families there you might have to wait for some food items.  The location is excellent and very close to the airport.  That said, - yes, I will stay here in the future.  I hope to encounter more of the friendly staff next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r548624577-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>548624577</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Our stay at the Homewood Suites by Hilton was great. Room was very nice and spacious, complimentary breakfast was very good and staff was very friendly and helpful. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r548445430-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>548445430</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel which has only been open for a couple of months and is located very near to LAX.  The hotel is actually 2 hotels in one.  Higher floors are the Curio and the lower floors are the Homewood Suites.  I stayed at the Homewood Suites which was very nice.  The room was a king suite with a kitchen and very modern design.  There is a small pool out on the first level of the hotel on the Century Avenue side.  The gym is on the 3rd floor.  Nice viewing area up on the 12th Floor to see planes coming into the airport.  Note that since this hotel is very close to LAX ou will hear planes until late at night and starting up early in the morning.  Breakfast is included at the Homewood Suites and there is enough to  your day started.  There is a Coffee Bean &amp; Tea Leaf at the hotel that gives hotel guests 10% off their purchase which is nice.  There is also a Subway next door to the Coffee Bean &amp; Tea Leaf.  Otherwise, the hotel has a restaurant that you can eat at for a more upscale experience.  There is a shuttle that runs to the airport.  Daily parking may be a bit pricey here.  I would stay here again for early or late flights in and out of LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel which has only been open for a couple of months and is located very near to LAX.  The hotel is actually 2 hotels in one.  Higher floors are the Curio and the lower floors are the Homewood Suites.  I stayed at the Homewood Suites which was very nice.  The room was a king suite with a kitchen and very modern design.  There is a small pool out on the first level of the hotel on the Century Avenue side.  The gym is on the 3rd floor.  Nice viewing area up on the 12th Floor to see planes coming into the airport.  Note that since this hotel is very close to LAX ou will hear planes until late at night and starting up early in the morning.  Breakfast is included at the Homewood Suites and there is enough to  your day started.  There is a Coffee Bean &amp; Tea Leaf at the hotel that gives hotel guests 10% off their purchase which is nice.  There is also a Subway next door to the Coffee Bean &amp; Tea Leaf.  Otherwise, the hotel has a restaurant that you can eat at for a more upscale experience.  There is a shuttle that runs to the airport.  Daily parking may be a bit pricey here.  I would stay here again for early or late flights in and out of LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r548041684-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>548041684</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Best Customer Service</t>
+  </si>
+  <si>
+    <t>Alvin really took care of me on my visit. I had a last minute reservation and he was so helpful in getting me a room. He made the check in process smooth and I will definitely be recommending this hotel to friends!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r547423543-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>547423543</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>The best of the best!</t>
+  </si>
+  <si>
+    <t>The perfect stay. If I had the opportunity again, this is my favorite. Wish my business trip would have been longer. The airport shuttle was convenient and easy to get. No worry with the complimentary breakfast and WiFi. Luxury and modern in suite accommodations that accommodate guests. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany J, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2017</t>
+  </si>
+  <si>
+    <t>The perfect stay. If I had the opportunity again, this is my favorite. Wish my business trip would have been longer. The airport shuttle was convenient and easy to get. No worry with the complimentary breakfast and WiFi. Luxury and modern in suite accommodations that accommodate guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r547294946-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>547294946</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Good size room in a good location</t>
+  </si>
+  <si>
+    <t>Overall it's a very pleasant stay for us. Location is very good. Room is fairly big. We love the bathroom. It is very modern. Our only complaint is the shower water current which is a little weak. But we accept it because it's water saving for environmental purpose.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall it's a very pleasant stay for us. Location is very good. Room is fairly big. We love the bathroom. It is very modern. Our only complaint is the shower water current which is a little weak. But we accept it because it's water saving for environmental purpose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r547100705-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>547100705</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Location, Location, Location n Yum Dinner Buffet!</t>
+  </si>
+  <si>
+    <t>I travel a lot for business.This hotel is a great location to unwind at the end of the day before catching an early morning flight.  The evening buffet is quite a spread with different hot choices.  Was missing adult beverages(!) so I went to the bar.  Waited about ten minutes and was never served so i left.  (I am not a fan of waiting around to see if someone gets around to taking an order. )Can walk over to the airport from this hotel.  And, there is a shuttle service. Make sure that you get a room on the backside of the hotel.  The front of the hotel is noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>InterstateHotels, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>I travel a lot for business.This hotel is a great location to unwind at the end of the day before catching an early morning flight.  The evening buffet is quite a spread with different hot choices.  Was missing adult beverages(!) so I went to the bar.  Waited about ten minutes and was never served so i left.  (I am not a fan of waiting around to see if someone gets around to taking an order. )Can walk over to the airport from this hotel.  And, there is a shuttle service. Make sure that you get a room on the backside of the hotel.  The front of the hotel is noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r546753729-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>546753729</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>very enjoyable experience</t>
+  </si>
+  <si>
+    <t>The room was very spacious and clean. The breakfast was excellent. The evening socials  (Monday thru Thursday ) were excellent  and were adequate as an evening meal. Overall service especially room service was excellent. We would definitely stay there again. We were on the 3rd floor of 12 and next time would request a higher floor for a better view of the surroundings.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very spacious and clean. The breakfast was excellent. The evening socials  (Monday thru Thursday ) were excellent  and were adequate as an evening meal. Overall service especially room service was excellent. We would definitely stay there again. We were on the 3rd floor of 12 and next time would request a higher floor for a better view of the surroundings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r546528912-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>546528912</t>
+  </si>
+  <si>
+    <t>Homewood Suites is ideal</t>
+  </si>
+  <si>
+    <t>Homewood Suites was a nice place to stay. The room was clean. The bed was comfortable, the air conditioner worked well, the shower was nice. The breakfast was great. The shuttle was quick and very convenient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r546325992-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>546325992</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Amazing!!</t>
+  </si>
+  <si>
+    <t>This is a very clean and great accommodations. They were very helpful upon check-in, and check out. They provided a shuttle to the airport. The restaurant was amazing the vary of choices was great too. The snacks and things are nice to take to the room and to eat for breakfast</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r544503163-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>544503163</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Nothing preventing a Five other than it was just an overnite layover</t>
+  </si>
+  <si>
+    <t>A newer hotel; rented the king studio suite with a small kitchen...has all the trappings of a stylish hotel.  Advanced check in was very fast check in with the app- showed I’d and the key was handed over.  Staff were very efficient.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany J, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>A newer hotel; rented the king studio suite with a small kitchen...has all the trappings of a stylish hotel.  Advanced check in was very fast check in with the app- showed I’d and the key was handed over.  Staff were very efficient.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r544351798-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>544351798</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Location, Location, Location</t>
+  </si>
+  <si>
+    <t>My overall experience was good.  My only complaint was the temperature of the outdoor swimming pool.  Temp was probably  in the low 70's....nippy!! But, overal...a great experience close to LAX!!  Would stay again!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r543944714-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>543944714</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>overnight stay</t>
+  </si>
+  <si>
+    <t>very good sound insulation, considering hotel was blocks away from LAX ... I was expecting a lot of airplane noise, but did not hear any. even next door &amp; corridor sounds are insulated.  comfy beds, clean carpets, good lay-out, clean bathroom &amp; kitchen, delicious breakfast.  loved our stay ... family enjoyed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r543277088-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>543277088</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Digs Need More Health Choices of Food</t>
+  </si>
+  <si>
+    <t>Absolutely beautiful, modern facility. Wonderful business room &amp; "living room" experience for guess. Tiny pool but very clean. IF you have allergies to food or want to be healthy in your food choices, you'll need to dine elsewhere. IF you don't care about processed foods, great sugary food choices, calories or could care less about weight gain from wheat produces &amp; fatty meals, you'll have no problems with breakfast or evening social. This hotel's location is IDEAL for LAX. Loved my suite - ultra modern is the key here and this hotel hits the mark. Complimentary newspaper, wi-fi, common spaces are inviting.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r543054408-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>543054408</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Pretty darned good!</t>
+  </si>
+  <si>
+    <t>Apart from the unlicensed ‘bar’ there is little to dislike here. Enormous rooms, gigantic TV, cavernous fridge - great facilities all round really. Lovely staff and generally an excellent place to stay. And the lack of a bar is no problem, there’s one just across the street and the staff will happily direct you over. Convenient for the airport it is high standard and a great place to stopMoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany J, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded November 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2017</t>
+  </si>
+  <si>
+    <t>Apart from the unlicensed ‘bar’ there is little to dislike here. Enormous rooms, gigantic TV, cavernous fridge - great facilities all round really. Lovely staff and generally an excellent place to stay. And the lack of a bar is no problem, there’s one just across the street and the staff will happily direct you over. Convenient for the airport it is high standard and a great place to stopMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r543099081-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>543099081</t>
+  </si>
+  <si>
+    <t>Best Room</t>
+  </si>
+  <si>
+    <t>This is the best room in LA! Full kitchen, breakfast table for work or meals, full size sofa, chair, work desk. Convenient if you are working the area and close to the rental return at LAX. Best Hilton property I've ever stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the best room in LA! Full kitchen, breakfast table for work or meals, full size sofa, chair, work desk. Convenient if you are working the area and close to the rental return at LAX. Best Hilton property I've ever stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r542078458-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>542078458</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Awesome Hilton Property</t>
+  </si>
+  <si>
+    <t>This is an excellent property with  modern, spacious and beautifully appointed rooms.  The service and staff were great. The parking upon arrival was frustrating with only 4 available spaces for checkin guests but the valet was eventually helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany J, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>This is an excellent property with  modern, spacious and beautifully appointed rooms.  The service and staff were great. The parking upon arrival was frustrating with only 4 available spaces for checkin guests but the valet was eventually helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r541827637-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>541827637</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>Very convenient to airport with less than a  a 5 minute ride on free shuttle. Beautiful new property. Room was very nice suite with a big kitchen / living area.  Big bedroom and bathroom. All in brand new, excellent condition.  Restaurant is in the property with other choices within other hotels in the area.  Staff was very good.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany J, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Very convenient to airport with less than a  a 5 minute ride on free shuttle. Beautiful new property. Room was very nice suite with a big kitchen / living area.  Big bedroom and bathroom. All in brand new, excellent condition.  Restaurant is in the property with other choices within other hotels in the area.  Staff was very good.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r541579705-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>541579705</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Concert stay</t>
+  </si>
+  <si>
+    <t>Good location to drop and pick up friend who came for concert weekend. Easy to get to beach, downtown LA. Not much within walking distance you need a car if staying here. Suites were super! Lots of room and beds super comfy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good location to drop and pick up friend who came for concert weekend. Easy to get to beach, downtown LA. Not much within walking distance you need a car if staying here. Suites were super! Lots of room and beds super comfy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r540459692-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>540459692</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Dano5659</t>
+  </si>
+  <si>
+    <t>Everything was perfect! Great location for an overnight stay while traveling to Hawaii. The bed and bedding were superb and helped me get a good nights sleep. Free breakfast was very good; quality food and variety. A convenient shuttle to and from the airport was nice. Hilton sure does it right. MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was perfect! Great location for an overnight stay while traveling to Hawaii. The bed and bedding were superb and helped me get a good nights sleep. Free breakfast was very good; quality food and variety. A convenient shuttle to and from the airport was nice. Hilton sure does it right. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r540426347-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>540426347</t>
+  </si>
+  <si>
+    <t>New, Modern Hotel At the LAX Airport Entrance!</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights and will return here again. It is a brand new hotel, very attractive and modern, which is much needed near LAX since the hotels tend to be old and dated. The staff was friendly. The breakfast was tasty. The suites were spacious and well-insulated. I never heard cars, aircraft or neighbors! You can easily walk to the airport from these location. I will stay here again for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights and will return here again. It is a brand new hotel, very attractive and modern, which is much needed near LAX since the hotels tend to be old and dated. The staff was friendly. The breakfast was tasty. The suites were spacious and well-insulated. I never heard cars, aircraft or neighbors! You can easily walk to the airport from these location. I will stay here again for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r540331393-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>540331393</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>greta place for park and fly</t>
+  </si>
+  <si>
+    <t>the hotel is actually two in one the Homeward suites and the H hotel. the second is a boutique hotel great of a young person or someone wanting  privacy and style. Homeward offers a good business or family friendly facility. breakfast and evening social are included. The Hotel also offer a Robot that can deliver food to your room. As of Nov 2017 this is a new maybe month old hotel and looks very nice. One block from LAX they offer parking for long term and shuttle service to get you there and pick you up. Highly recommend this facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>the hotel is actually two in one the Homeward suites and the H hotel. the second is a boutique hotel great of a young person or someone wanting  privacy and style. Homeward offers a good business or family friendly facility. breakfast and evening social are included. The Hotel also offer a Robot that can deliver food to your room. As of Nov 2017 this is a new maybe month old hotel and looks very nice. One block from LAX they offer parking for long term and shuttle service to get you there and pick you up. Highly recommend this facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r539772935-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>539772935</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Perfect stay, highly recommend</t>
+  </si>
+  <si>
+    <t>I have stayed at many of the LAX hotels and can say this is the best. Beautiful decor, spacious room and fantastic staff. Don't stay anywhere else! I will return on my next visit. A big thank you to the Manager and staff, outstanding.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at many of the LAX hotels and can say this is the best. Beautiful decor, spacious room and fantastic staff. Don't stay anywhere else! I will return on my next visit. A big thank you to the Manager and staff, outstanding.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r539243475-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>539243475</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Beautifully decorated, perfectly located with all the conveniences of home</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful.  Love the location, the way the rooms are arranged and the decor.  As a Hilton member I thought I'd get a bag of water, at least, upon arrival but I guess I haven't acquired enough points for it.  My room was very clean with the exception of a few strands of hair in the shower drain.  Other than that it was so comfortable that I could live in it if I had to.  Didn't hear much noise from my neighbor other than their main door closing or their alarm clock going off for a while.  The traffic &amp; airplane noises were there but not really noticeable.  Really, really liked the high ceilings &amp; all the windows which i mostly kept opened even at night.  As a decor tip I'd encourage using those shades that allow light to filter through while adding a bit of privacy instead of the drapes / curtains.  The windows are way too pretty to be hidden by drapes unless the intent is to use them as a sound barrier.  Check-in was quick &amp; spot on.  Initially the system gave me room 609 but I asked my attendant if it was at the end of the hall &amp; she nailed it when she changed it to room 221.  My room attendant was very pleasant even the other lady who followed up behind her to confirm the 1 day I didn't need service.  The...The hotel is beautiful.  Love the location, the way the rooms are arranged and the decor.  As a Hilton member I thought I'd get a bag of water, at least, upon arrival but I guess I haven't acquired enough points for it.  My room was very clean with the exception of a few strands of hair in the shower drain.  Other than that it was so comfortable that I could live in it if I had to.  Didn't hear much noise from my neighbor other than their main door closing or their alarm clock going off for a while.  The traffic &amp; airplane noises were there but not really noticeable.  Really, really liked the high ceilings &amp; all the windows which i mostly kept opened even at night.  As a decor tip I'd encourage using those shades that allow light to filter through while adding a bit of privacy instead of the drapes / curtains.  The windows are way too pretty to be hidden by drapes unless the intent is to use them as a sound barrier.  Check-in was quick &amp; spot on.  Initially the system gave me room 609 but I asked my attendant if it was at the end of the hall &amp; she nailed it when she changed it to room 221.  My room attendant was very pleasant even the other lady who followed up behind her to confirm the 1 day I didn't need service.  The breakfast was delightful.  I really liked that they tried to change it up each day.  The staff was too sweet &amp; accommodating.  The evening social was delightful as well (wished it was available on the weekends too...hint).  The price for the food in the pantry downstairs was a bit pricey compared to where I'm from ($3 for water &amp; $4 for candy, really?).  All in all, I really enjoyed it &amp; will stay again should my travels return me to LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful.  Love the location, the way the rooms are arranged and the decor.  As a Hilton member I thought I'd get a bag of water, at least, upon arrival but I guess I haven't acquired enough points for it.  My room was very clean with the exception of a few strands of hair in the shower drain.  Other than that it was so comfortable that I could live in it if I had to.  Didn't hear much noise from my neighbor other than their main door closing or their alarm clock going off for a while.  The traffic &amp; airplane noises were there but not really noticeable.  Really, really liked the high ceilings &amp; all the windows which i mostly kept opened even at night.  As a decor tip I'd encourage using those shades that allow light to filter through while adding a bit of privacy instead of the drapes / curtains.  The windows are way too pretty to be hidden by drapes unless the intent is to use them as a sound barrier.  Check-in was quick &amp; spot on.  Initially the system gave me room 609 but I asked my attendant if it was at the end of the hall &amp; she nailed it when she changed it to room 221.  My room attendant was very pleasant even the other lady who followed up behind her to confirm the 1 day I didn't need service.  The...The hotel is beautiful.  Love the location, the way the rooms are arranged and the decor.  As a Hilton member I thought I'd get a bag of water, at least, upon arrival but I guess I haven't acquired enough points for it.  My room was very clean with the exception of a few strands of hair in the shower drain.  Other than that it was so comfortable that I could live in it if I had to.  Didn't hear much noise from my neighbor other than their main door closing or their alarm clock going off for a while.  The traffic &amp; airplane noises were there but not really noticeable.  Really, really liked the high ceilings &amp; all the windows which i mostly kept opened even at night.  As a decor tip I'd encourage using those shades that allow light to filter through while adding a bit of privacy instead of the drapes / curtains.  The windows are way too pretty to be hidden by drapes unless the intent is to use them as a sound barrier.  Check-in was quick &amp; spot on.  Initially the system gave me room 609 but I asked my attendant if it was at the end of the hall &amp; she nailed it when she changed it to room 221.  My room attendant was very pleasant even the other lady who followed up behind her to confirm the 1 day I didn't need service.  The breakfast was delightful.  I really liked that they tried to change it up each day.  The staff was too sweet &amp; accommodating.  The evening social was delightful as well (wished it was available on the weekends too...hint).  The price for the food in the pantry downstairs was a bit pricey compared to where I'm from ($3 for water &amp; $4 for candy, really?).  All in all, I really enjoyed it &amp; will stay again should my travels return me to LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r539236074-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>539236074</t>
+  </si>
+  <si>
+    <t>Superior!</t>
+  </si>
+  <si>
+    <t>What more can be said then it was an impressive room for a Homewood Suites! We had a corner room with tall windows, spacious, comfortable, clean and that feeling of home! Even had company while here and my daughter-in-law commented that the room was larger than most LA apartments! Asked for an extended check out time since son &amp; d-i-l came up to visit, was granted it. Had an early afternoon flight out and was very convenient to LAX. Would recommend this hotel and would love to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>What more can be said then it was an impressive room for a Homewood Suites! We had a corner room with tall windows, spacious, comfortable, clean and that feeling of home! Even had company while here and my daughter-in-law commented that the room was larger than most LA apartments! Asked for an extended check out time since son &amp; d-i-l came up to visit, was granted it. Had an early afternoon flight out and was very convenient to LAX. Would recommend this hotel and would love to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r538142835-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>538142835</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Double booked my room</t>
+  </si>
+  <si>
+    <t>Staff double booked my room and had a random intoxicated guy walk in my room and say he was checked in the same room. This happened late at night when I was getting undressed and was a horrible experience. Hotel was very clean and well kept but bad incident. No accommodations by staff for this major issue.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r537803474-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>537803474</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Very impressive!</t>
+  </si>
+  <si>
+    <t>This is the first time that our family stay in a Homewood Suite. We chose this hotel due to its very close proximity to LAX since we had a morning flight. We were a family of 3 adults and 2 young children. The room was very spacious. It had a sizeable kitchen with a counter. There was a large refrigerator and a large microwave. It has all the convenience a family would need.During our stay, we only found out that the hotel was only opened about a month ago. The service was fantastic, from the check-in to the bell/porter service. The hotel provides complimentary continental (light) breakfast to all guests.I would highly recommend this hotel to guests who would be catching a flight out of LAX the following day. It's best to relax in a spacious hotel with all the amenities prior to boarding a flight the following day. We would definitely stay here again during our next holiday in Los Angeles.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the first time that our family stay in a Homewood Suite. We chose this hotel due to its very close proximity to LAX since we had a morning flight. We were a family of 3 adults and 2 young children. The room was very spacious. It had a sizeable kitchen with a counter. There was a large refrigerator and a large microwave. It has all the convenience a family would need.During our stay, we only found out that the hotel was only opened about a month ago. The service was fantastic, from the check-in to the bell/porter service. The hotel provides complimentary continental (light) breakfast to all guests.I would highly recommend this hotel to guests who would be catching a flight out of LAX the following day. It's best to relax in a spacious hotel with all the amenities prior to boarding a flight the following day. We would definitely stay here again during our next holiday in Los Angeles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r537755467-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>537755467</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel, closest to LAX</t>
+  </si>
+  <si>
+    <t>Best location if you have a morning flight out of LAX.  The staff was great.  The room was perfect.  They even have a robot butler named HANNAH that delivered a water bottle to my room.  Didn’t even notice the traffic sound outside the room.  Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r536767173-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>536767173</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Great new Hoewood Suits right at the LAX airport</t>
+  </si>
+  <si>
+    <t>We stayed one night to be able to catch an early flight out in the morning.  The building is brand new and the suite was excellent.  We enjoyed the evening social and the free breakfast.  The free shuttle to the airport saved us having to wait for a cab or Uber.  The price was very good for the LA area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r536489818-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>536489818</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Excellent new hotel close to LAX - but no bar (yet)!</t>
+  </si>
+  <si>
+    <t>Stayed at the Homewood Suites for one night earlier this month.  All of the hotels I would usually stay at when in Los Angeles were either fully booked or exorbitantly priced and so I ended up here.
+It's a brand new hotel - only been open two weeks according to the staff when I checked in.  With the exception of a missing ceiling tile in the corridor outside my room it was hard to fault.  Only criticism was no bottled water in the room, although the Front Desk was happy to provide a couple of complimentary bottles.
+Bed was comfortable, TV was good, shower was powerful, linens were clean and fresh.  In short, everything was as you'd expect it to be.
+We didn't eat at the hotel as we arrived late and had an early start so can't comment on the food.  The lack of a liquor license meant we also didn't visit the bar but the staff were able to recommend somewhere very close by which hit the spot.
+Only other minor criticism is that we had to wait longer than advertised for the complimentary shuttle from LAX to the hotel.  We were told it ran every 15 minutes but our wait was closer to 40.  Given how close the hotel is to LAX and even allowing for bad traffic I felt the wait was too long.
+Other than that, very difficult to find fault with what is a...Stayed at the Homewood Suites for one night earlier this month.  All of the hotels I would usually stay at when in Los Angeles were either fully booked or exorbitantly priced and so I ended up here.It's a brand new hotel - only been open two weeks according to the staff when I checked in.  With the exception of a missing ceiling tile in the corridor outside my room it was hard to fault.  Only criticism was no bottled water in the room, although the Front Desk was happy to provide a couple of complimentary bottles.Bed was comfortable, TV was good, shower was powerful, linens were clean and fresh.  In short, everything was as you'd expect it to be.We didn't eat at the hotel as we arrived late and had an early start so can't comment on the food.  The lack of a liquor license meant we also didn't visit the bar but the staff were able to recommend somewhere very close by which hit the spot.Only other minor criticism is that we had to wait longer than advertised for the complimentary shuttle from LAX to the hotel.  We were told it ran every 15 minutes but our wait was closer to 40.  Given how close the hotel is to LAX and even allowing for bad traffic I felt the wait was too long.Other than that, very difficult to find fault with what is a very stylish and modern new hotel.  Would certainly stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the Homewood Suites for one night earlier this month.  All of the hotels I would usually stay at when in Los Angeles were either fully booked or exorbitantly priced and so I ended up here.
+It's a brand new hotel - only been open two weeks according to the staff when I checked in.  With the exception of a missing ceiling tile in the corridor outside my room it was hard to fault.  Only criticism was no bottled water in the room, although the Front Desk was happy to provide a couple of complimentary bottles.
+Bed was comfortable, TV was good, shower was powerful, linens were clean and fresh.  In short, everything was as you'd expect it to be.
+We didn't eat at the hotel as we arrived late and had an early start so can't comment on the food.  The lack of a liquor license meant we also didn't visit the bar but the staff were able to recommend somewhere very close by which hit the spot.
+Only other minor criticism is that we had to wait longer than advertised for the complimentary shuttle from LAX to the hotel.  We were told it ran every 15 minutes but our wait was closer to 40.  Given how close the hotel is to LAX and even allowing for bad traffic I felt the wait was too long.
+Other than that, very difficult to find fault with what is a...Stayed at the Homewood Suites for one night earlier this month.  All of the hotels I would usually stay at when in Los Angeles were either fully booked or exorbitantly priced and so I ended up here.It's a brand new hotel - only been open two weeks according to the staff when I checked in.  With the exception of a missing ceiling tile in the corridor outside my room it was hard to fault.  Only criticism was no bottled water in the room, although the Front Desk was happy to provide a couple of complimentary bottles.Bed was comfortable, TV was good, shower was powerful, linens were clean and fresh.  In short, everything was as you'd expect it to be.We didn't eat at the hotel as we arrived late and had an early start so can't comment on the food.  The lack of a liquor license meant we also didn't visit the bar but the staff were able to recommend somewhere very close by which hit the spot.Only other minor criticism is that we had to wait longer than advertised for the complimentary shuttle from LAX to the hotel.  We were told it ran every 15 minutes but our wait was closer to 40.  Given how close the hotel is to LAX and even allowing for bad traffic I felt the wait was too long.Other than that, very difficult to find fault with what is a very stylish and modern new hotel.  Would certainly stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r535995608-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>535995608</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Homewood made me feel at HOME</t>
+  </si>
+  <si>
+    <t>This hotel is BEAUTIFUL. The rooms are spacious and clean and very well decorated. It's near LAX  but must be very well built because my sleep was not interrupted by any plane noise. The restaurant food was very good but I did not care for the complimentary breakfast items. The 2nd floor location was huge and very comfortable. They should try eggs prepared to order like Embassy suites. The rooms far exceed Embassy but the breakfast items could be improved. The staff on duty was very attentive. They are still waiting on a liquor license but the suites can fully accommodate anything you want to bring. They will even do grocery shopping for you if needed - now THATS SERVICE!The manager Josh is a like no other I have ever experienced. He cares about the guests and wants everyone's experience to be outstanding. The parking is a little confusing because it's shared with other users. I did not like the garage being detached from the hotel. They have an excellent coffee shop and a subway sandwich connected which was very convenient as well.I LOVE THIS HOTEL AND WILL TRY IT AGAIN IN A FEW MONTHSMoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is BEAUTIFUL. The rooms are spacious and clean and very well decorated. It's near LAX  but must be very well built because my sleep was not interrupted by any plane noise. The restaurant food was very good but I did not care for the complimentary breakfast items. The 2nd floor location was huge and very comfortable. They should try eggs prepared to order like Embassy suites. The rooms far exceed Embassy but the breakfast items could be improved. The staff on duty was very attentive. They are still waiting on a liquor license but the suites can fully accommodate anything you want to bring. They will even do grocery shopping for you if needed - now THATS SERVICE!The manager Josh is a like no other I have ever experienced. He cares about the guests and wants everyone's experience to be outstanding. The parking is a little confusing because it's shared with other users. I did not like the garage being detached from the hotel. They have an excellent coffee shop and a subway sandwich connected which was very convenient as well.I LOVE THIS HOTEL AND WILL TRY IT AGAIN IN A FEW MONTHSMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r535614768-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>535614768</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Delayed Check-in</t>
+  </si>
+  <si>
+    <t>Arrived at 4 am, after a 5-hour delayed flight, to find out this hotel runs an audit from 4-5 am and it is impossible to check-in.  This is the last thing you want to hear after 15 hours of traveling from Hawaii to LAX.  An airport hotel should be prepared to check-in guests at any hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>InterstateHotels, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Arrived at 4 am, after a 5-hour delayed flight, to find out this hotel runs an audit from 4-5 am and it is impossible to check-in.  This is the last thing you want to hear after 15 hours of traveling from Hawaii to LAX.  An airport hotel should be prepared to check-in guests at any hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r535531815-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>535531815</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>BRAND NEW AND AMAZING</t>
+  </si>
+  <si>
+    <t>amazing brand new clean ..... great for one bedroom for a family of 5. the kids where amazed with the service robot they have..... loved that it was so close to the airport! the shuttle picked us up at the airport terminal left us right at the hotel... free great breakfast....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r535177243-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>535177243</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>New Hotel with high tech features</t>
+  </si>
+  <si>
+    <t>We stayed here about 2 weeks after they opened.  Very nice new hotel! Contemporary
+ furnishings and some high tech features.  We stayed 1 night to catch an LAX flight the next day. Booked with points from a 3rd party. The hotel is located just outside LAX.  We took the shuttle from the airport.  It is a red/blue van with Joe's Parking and Homewood Suites/H Hotel markings.  Timely (every 15-20 min) and polite drivers. 
+There are 2 hotels in this one building: The Homewood Suites and the H, both Hilton, so as you enter it is a bit confusing which desk to go to. The Homewood Suites desk is the one to the right. Front desk staff was friendly and helpful. The elevator has an exterior floor selection screen.  To call the elevator, you select the floor or tap your card and it tells you which elevator to take.  Once in the elevator there are no buttons which feels a bit different.  Signage is good and it's easy to find your room.
+We had an ADA room so it was slightly larger but similar to the management pictures. There is a door bell and buttons near the door to select/indicate whether you want housekeeping or not be disturbed. Room is very spacious and nicely furnished.  Comfortable bed/pillows.  Ours had button controlled drapes/blackout drapes. Cool!  Nice kitchen with 2 burner stove top and enough to enable you to cook if you are...We stayed here about 2 weeks after they opened.  Very nice new hotel! Contemporary furnishings and some high tech features.  We stayed 1 night to catch an LAX flight the next day. Booked with points from a 3rd party. The hotel is located just outside LAX.  We took the shuttle from the airport.  It is a red/blue van with Joe's Parking and Homewood Suites/H Hotel markings.  Timely (every 15-20 min) and polite drivers. There are 2 hotels in this one building: The Homewood Suites and the H, both Hilton, so as you enter it is a bit confusing which desk to go to. The Homewood Suites desk is the one to the right. Front desk staff was friendly and helpful. The elevator has an exterior floor selection screen.  To call the elevator, you select the floor or tap your card and it tells you which elevator to take.  Once in the elevator there are no buttons which feels a bit different.  Signage is good and it's easy to find your room.We had an ADA room so it was slightly larger but similar to the management pictures. There is a door bell and buttons near the door to select/indicate whether you want housekeeping or not be disturbed. Room is very spacious and nicely furnished.  Comfortable bed/pillows.  Ours had button controlled drapes/blackout drapes. Cool!  Nice kitchen with 2 burner stove top and enough to enable you to cook if you are so inclined.  Keurig coffee machine. We had a corner room with a view of Century Blvd and the Joe's parking next door. We did not have a car but it looked like parking for the hotel was to the right of the parking garage facility (blue trim) in back of the hotel.  Check out the roof deck on the 12th floor. Amazing views and great area to sit and relax. Pool was small but adequate to cool off or amuse the kids for a while.  You can hear some traffic noise and air traffic but we could sleep through it.They are admittedly still fine tuning some things. Housekeeping could be a bit more through.  Found multiple hairs in the bathtub/shower which always disappoints me. No reason for that.  Business center is 2 computers in the lobby area.  No chairs to sit so it was a bit awkward to stand and type to check in for our flight.We ate at the hotel restaurant.  Good burgers and again high tech ordering with a tablet. Free Breakfast was adequate and standard for the chain. Staff was attentive and helpful.This is a solid very nice new hotel near LAX.  We would definitely stay here again.  Want to have the robot bring me a drink next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here about 2 weeks after they opened.  Very nice new hotel! Contemporary
+ furnishings and some high tech features.  We stayed 1 night to catch an LAX flight the next day. Booked with points from a 3rd party. The hotel is located just outside LAX.  We took the shuttle from the airport.  It is a red/blue van with Joe's Parking and Homewood Suites/H Hotel markings.  Timely (every 15-20 min) and polite drivers. 
+There are 2 hotels in this one building: The Homewood Suites and the H, both Hilton, so as you enter it is a bit confusing which desk to go to. The Homewood Suites desk is the one to the right. Front desk staff was friendly and helpful. The elevator has an exterior floor selection screen.  To call the elevator, you select the floor or tap your card and it tells you which elevator to take.  Once in the elevator there are no buttons which feels a bit different.  Signage is good and it's easy to find your room.
+We had an ADA room so it was slightly larger but similar to the management pictures. There is a door bell and buttons near the door to select/indicate whether you want housekeeping or not be disturbed. Room is very spacious and nicely furnished.  Comfortable bed/pillows.  Ours had button controlled drapes/blackout drapes. Cool!  Nice kitchen with 2 burner stove top and enough to enable you to cook if you are...We stayed here about 2 weeks after they opened.  Very nice new hotel! Contemporary furnishings and some high tech features.  We stayed 1 night to catch an LAX flight the next day. Booked with points from a 3rd party. The hotel is located just outside LAX.  We took the shuttle from the airport.  It is a red/blue van with Joe's Parking and Homewood Suites/H Hotel markings.  Timely (every 15-20 min) and polite drivers. There are 2 hotels in this one building: The Homewood Suites and the H, both Hilton, so as you enter it is a bit confusing which desk to go to. The Homewood Suites desk is the one to the right. Front desk staff was friendly and helpful. The elevator has an exterior floor selection screen.  To call the elevator, you select the floor or tap your card and it tells you which elevator to take.  Once in the elevator there are no buttons which feels a bit different.  Signage is good and it's easy to find your room.We had an ADA room so it was slightly larger but similar to the management pictures. There is a door bell and buttons near the door to select/indicate whether you want housekeeping or not be disturbed. Room is very spacious and nicely furnished.  Comfortable bed/pillows.  Ours had button controlled drapes/blackout drapes. Cool!  Nice kitchen with 2 burner stove top and enough to enable you to cook if you are so inclined.  Keurig coffee machine. We had a corner room with a view of Century Blvd and the Joe's parking next door. We did not have a car but it looked like parking for the hotel was to the right of the parking garage facility (blue trim) in back of the hotel.  Check out the roof deck on the 12th floor. Amazing views and great area to sit and relax. Pool was small but adequate to cool off or amuse the kids for a while.  You can hear some traffic noise and air traffic but we could sleep through it.They are admittedly still fine tuning some things. Housekeeping could be a bit more through.  Found multiple hairs in the bathtub/shower which always disappoints me. No reason for that.  Business center is 2 computers in the lobby area.  No chairs to sit so it was a bit awkward to stand and type to check in for our flight.We ate at the hotel restaurant.  Good burgers and again high tech ordering with a tablet. Free Breakfast was adequate and standard for the chain. Staff was attentive and helpful.This is a solid very nice new hotel near LAX.  We would definitely stay here again.  Want to have the robot bring me a drink next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r534194999-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>534194999</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Perfect relaxation before a day of travel, can I live here?</t>
+  </si>
+  <si>
+    <t>I always book a hotel close to the airport before I fly back home at the end of a trip. This hotel was brand new and the most clean hotel I’ve ever stayed in. A few people told me it had only opened the previous week. The rooms are a great layout with high ceilings, great bathrooms, AWESOME black out curtains, huge TV, and even a garbage disposal if you feel the need. Everything felt very high end, including the Willy Wonka elevator that just takes you to where you need to go. They had a great happy hour schedule posted in the room for the reception area and a standard Hampton style waffle/biscuits and gravy warm breakfast. Shuttle was waiting on me in the morning and ran every 10-15 min and went straight to the airport without other stops. I would DEFINITELY stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I always book a hotel close to the airport before I fly back home at the end of a trip. This hotel was brand new and the most clean hotel I’ve ever stayed in. A few people told me it had only opened the previous week. The rooms are a great layout with high ceilings, great bathrooms, AWESOME black out curtains, huge TV, and even a garbage disposal if you feel the need. Everything felt very high end, including the Willy Wonka elevator that just takes you to where you need to go. They had a great happy hour schedule posted in the room for the reception area and a standard Hampton style waffle/biscuits and gravy warm breakfast. Shuttle was waiting on me in the morning and ran every 10-15 min and went straight to the airport without other stops. I would DEFINITELY stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r533037538-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>533037538</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Stayed here for overnight stay and I'm glad as the rooms are great, Great tall rooms and very large, close to airport  Very affordable, great and friendly staff....would definitely stay here again, and next time will stay much longer if I can. MoreShow less</t>
+  </si>
+  <si>
+    <t>InterstateHotels, Manager at Homewood Suites by Hilton Los Angeles International Airport, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for overnight stay and I'm glad as the rooms are great, Great tall rooms and very large, close to airport  Very affordable, great and friendly staff....would definitely stay here again, and next time will stay much longer if I can. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r531858058-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
+  </si>
+  <si>
+    <t>531858058</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Opening Night</t>
+  </si>
+  <si>
+    <t>I stayed at the beautiful Homewood Suites LAX on Opening Night!!It was a great stay.  Even though there were some bumps, the staff did a great job.  Very welcoming and friendly.  The hotel is beautiful.  It is a dual hotel.  H Hotel by Curio and a Homewood Suites.   This is not your typical Homewood Suites.  It had a beautiful restaurant , Waypoint Kitchen, great Homewood Suites Free breakfast, fast and free WiFi, a Coffee Bean and Tea Leaf in the Lobby,  and a great Market/Pantry to pick up a snack or drink.  I can't wait to go back and Try the H Hotel by Curio room, the staff told me they have Nespresso coffee machines in the room.  Great Overall stay and really impressive design and welcoming staff.  Highly recommend!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the beautiful Homewood Suites LAX on Opening Night!!It was a great stay.  Even though there were some bumps, the staff did a great job.  Very welcoming and friendly.  The hotel is beautiful.  It is a dual hotel.  H Hotel by Curio and a Homewood Suites.   This is not your typical Homewood Suites.  It had a beautiful restaurant , Waypoint Kitchen, great Homewood Suites Free breakfast, fast and free WiFi, a Coffee Bean and Tea Leaf in the Lobby,  and a great Market/Pantry to pick up a snack or drink.  I can't wait to go back and Try the H Hotel by Curio room, the staff told me they have Nespresso coffee machines in the room.  Great Overall stay and really impressive design and welcoming staff.  Highly recommend!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2184,5386 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>175</v>
+      </c>
+      <c r="X24" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>174</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>183</v>
+      </c>
+      <c r="X25" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>174</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" t="s">
+        <v>199</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>174</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>174</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s">
+        <v>211</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>212</v>
+      </c>
+      <c r="O30" t="s">
+        <v>154</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" t="s">
+        <v>217</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>212</v>
+      </c>
+      <c r="O31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s">
+        <v>222</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>212</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>223</v>
+      </c>
+      <c r="X32" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" t="s">
+        <v>228</v>
+      </c>
+      <c r="K33" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>231</v>
+      </c>
+      <c r="O33" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J34" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" t="s">
+        <v>237</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>212</v>
+      </c>
+      <c r="O34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>239</v>
+      </c>
+      <c r="J35" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>212</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" t="s">
+        <v>246</v>
+      </c>
+      <c r="L36" t="s">
+        <v>247</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>248</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>250</v>
+      </c>
+      <c r="J37" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" t="s">
+        <v>252</v>
+      </c>
+      <c r="L37" t="s">
+        <v>253</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>248</v>
+      </c>
+      <c r="O37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K38" t="s">
+        <v>257</v>
+      </c>
+      <c r="L38" t="s">
+        <v>258</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>248</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>261</v>
+      </c>
+      <c r="J39" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" t="s">
+        <v>263</v>
+      </c>
+      <c r="L39" t="s">
+        <v>264</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>248</v>
+      </c>
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>265</v>
+      </c>
+      <c r="X39" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>248</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>274</v>
+      </c>
+      <c r="J41" t="s">
+        <v>275</v>
+      </c>
+      <c r="K41" t="s">
+        <v>142</v>
+      </c>
+      <c r="L41" t="s">
+        <v>276</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>248</v>
+      </c>
+      <c r="O41" t="s">
+        <v>154</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>277</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>278</v>
+      </c>
+      <c r="J42" t="s">
+        <v>275</v>
+      </c>
+      <c r="K42" t="s">
+        <v>279</v>
+      </c>
+      <c r="L42" t="s">
+        <v>280</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>231</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>283</v>
+      </c>
+      <c r="J43" t="s">
+        <v>284</v>
+      </c>
+      <c r="K43" t="s">
+        <v>285</v>
+      </c>
+      <c r="L43" t="s">
+        <v>286</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>248</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>288</v>
+      </c>
+      <c r="J44" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" t="s">
+        <v>290</v>
+      </c>
+      <c r="L44" t="s">
+        <v>291</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>231</v>
+      </c>
+      <c r="O44" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>293</v>
+      </c>
+      <c r="J45" t="s">
+        <v>294</v>
+      </c>
+      <c r="K45" t="s">
+        <v>295</v>
+      </c>
+      <c r="L45" t="s">
+        <v>296</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>248</v>
+      </c>
+      <c r="O45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>298</v>
+      </c>
+      <c r="J46" t="s">
+        <v>299</v>
+      </c>
+      <c r="K46" t="s">
+        <v>300</v>
+      </c>
+      <c r="L46" t="s">
+        <v>301</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>231</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>302</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>303</v>
+      </c>
+      <c r="J47" t="s">
+        <v>304</v>
+      </c>
+      <c r="K47" t="s">
+        <v>305</v>
+      </c>
+      <c r="L47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>231</v>
+      </c>
+      <c r="O47" t="s">
+        <v>92</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>307</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>308</v>
+      </c>
+      <c r="J48" t="s">
+        <v>309</v>
+      </c>
+      <c r="K48" t="s">
+        <v>310</v>
+      </c>
+      <c r="L48" t="s">
+        <v>311</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>231</v>
+      </c>
+      <c r="O48" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>312</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>313</v>
+      </c>
+      <c r="J49" t="s">
+        <v>309</v>
+      </c>
+      <c r="K49" t="s">
+        <v>314</v>
+      </c>
+      <c r="L49" t="s">
+        <v>315</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>231</v>
+      </c>
+      <c r="O49" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>317</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>318</v>
+      </c>
+      <c r="J50" t="s">
+        <v>319</v>
+      </c>
+      <c r="K50" t="s">
+        <v>320</v>
+      </c>
+      <c r="L50" t="s">
+        <v>321</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>231</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>322</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>323</v>
+      </c>
+      <c r="J51" t="s">
+        <v>324</v>
+      </c>
+      <c r="K51" t="s">
+        <v>325</v>
+      </c>
+      <c r="L51" t="s">
+        <v>326</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>231</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>329</v>
+      </c>
+      <c r="J52" t="s">
+        <v>330</v>
+      </c>
+      <c r="K52" t="s">
+        <v>331</v>
+      </c>
+      <c r="L52" t="s">
+        <v>332</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>231</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>333</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>334</v>
+      </c>
+      <c r="J53" t="s">
+        <v>335</v>
+      </c>
+      <c r="K53" t="s">
+        <v>336</v>
+      </c>
+      <c r="L53" t="s">
+        <v>337</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>231</v>
+      </c>
+      <c r="O53" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>338</v>
+      </c>
+      <c r="X53" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>341</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>342</v>
+      </c>
+      <c r="J54" t="s">
+        <v>343</v>
+      </c>
+      <c r="K54" t="s">
+        <v>344</v>
+      </c>
+      <c r="L54" t="s">
+        <v>345</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>231</v>
+      </c>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>338</v>
+      </c>
+      <c r="X54" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>347</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>348</v>
+      </c>
+      <c r="J55" t="s">
+        <v>349</v>
+      </c>
+      <c r="K55" t="s">
+        <v>350</v>
+      </c>
+      <c r="L55" t="s">
+        <v>351</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>352</v>
+      </c>
+      <c r="O55" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>353</v>
+      </c>
+      <c r="X55" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>356</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>357</v>
+      </c>
+      <c r="J56" t="s">
+        <v>358</v>
+      </c>
+      <c r="K56" t="s">
+        <v>359</v>
+      </c>
+      <c r="L56" t="s">
+        <v>360</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>231</v>
+      </c>
+      <c r="O56" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>338</v>
+      </c>
+      <c r="X56" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" t="s">
+        <v>358</v>
+      </c>
+      <c r="K57" t="s">
+        <v>364</v>
+      </c>
+      <c r="L57" t="s">
+        <v>365</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>231</v>
+      </c>
+      <c r="O57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>366</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K58" t="s">
+        <v>369</v>
+      </c>
+      <c r="L58" t="s">
+        <v>370</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>231</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>371</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>372</v>
+      </c>
+      <c r="J59" t="s">
+        <v>373</v>
+      </c>
+      <c r="K59" t="s">
+        <v>374</v>
+      </c>
+      <c r="L59" t="s">
+        <v>375</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>352</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>376</v>
+      </c>
+      <c r="X59" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>380</v>
+      </c>
+      <c r="J60" t="s">
+        <v>381</v>
+      </c>
+      <c r="K60" t="s">
+        <v>382</v>
+      </c>
+      <c r="L60" t="s">
+        <v>383</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>352</v>
+      </c>
+      <c r="O60" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>384</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>385</v>
+      </c>
+      <c r="J61" t="s">
+        <v>386</v>
+      </c>
+      <c r="K61" t="s">
+        <v>387</v>
+      </c>
+      <c r="L61" t="s">
+        <v>388</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>352</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>389</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>390</v>
+      </c>
+      <c r="J62" t="s">
+        <v>391</v>
+      </c>
+      <c r="K62" t="s">
+        <v>392</v>
+      </c>
+      <c r="L62" t="s">
+        <v>393</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>352</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>394</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>395</v>
+      </c>
+      <c r="J63" t="s">
+        <v>396</v>
+      </c>
+      <c r="K63" t="s">
+        <v>397</v>
+      </c>
+      <c r="L63" t="s">
+        <v>398</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>399</v>
+      </c>
+      <c r="X63" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>402</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>403</v>
+      </c>
+      <c r="J64" t="s">
+        <v>396</v>
+      </c>
+      <c r="K64" t="s">
+        <v>404</v>
+      </c>
+      <c r="L64" t="s">
+        <v>405</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>352</v>
+      </c>
+      <c r="O64" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>399</v>
+      </c>
+      <c r="X64" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>407</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>408</v>
+      </c>
+      <c r="J65" t="s">
+        <v>409</v>
+      </c>
+      <c r="K65" t="s">
+        <v>410</v>
+      </c>
+      <c r="L65" t="s">
+        <v>411</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>352</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>412</v>
+      </c>
+      <c r="X65" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>415</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>416</v>
+      </c>
+      <c r="J66" t="s">
+        <v>417</v>
+      </c>
+      <c r="K66" t="s">
+        <v>418</v>
+      </c>
+      <c r="L66" t="s">
+        <v>419</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>352</v>
+      </c>
+      <c r="O66" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>420</v>
+      </c>
+      <c r="X66" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>423</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>424</v>
+      </c>
+      <c r="J67" t="s">
+        <v>425</v>
+      </c>
+      <c r="K67" t="s">
+        <v>426</v>
+      </c>
+      <c r="L67" t="s">
+        <v>427</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>352</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>420</v>
+      </c>
+      <c r="X67" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>430</v>
+      </c>
+      <c r="J68" t="s">
+        <v>431</v>
+      </c>
+      <c r="K68" t="s">
+        <v>432</v>
+      </c>
+      <c r="L68" t="s">
+        <v>433</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>352</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>420</v>
+      </c>
+      <c r="X68" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>435</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>436</v>
+      </c>
+      <c r="J69" t="s">
+        <v>431</v>
+      </c>
+      <c r="K69" t="s">
+        <v>437</v>
+      </c>
+      <c r="L69" t="s">
+        <v>438</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>352</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>420</v>
+      </c>
+      <c r="X69" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>440</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>441</v>
+      </c>
+      <c r="J70" t="s">
+        <v>442</v>
+      </c>
+      <c r="K70" t="s">
+        <v>443</v>
+      </c>
+      <c r="L70" t="s">
+        <v>444</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>352</v>
+      </c>
+      <c r="O70" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>420</v>
+      </c>
+      <c r="X70" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>446</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>447</v>
+      </c>
+      <c r="J71" t="s">
+        <v>448</v>
+      </c>
+      <c r="K71" t="s">
+        <v>449</v>
+      </c>
+      <c r="L71" t="s">
+        <v>450</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>352</v>
+      </c>
+      <c r="O71" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>420</v>
+      </c>
+      <c r="X71" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>452</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>453</v>
+      </c>
+      <c r="J72" t="s">
+        <v>454</v>
+      </c>
+      <c r="K72" t="s">
+        <v>455</v>
+      </c>
+      <c r="L72" t="s">
+        <v>456</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>352</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>420</v>
+      </c>
+      <c r="X72" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>458</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>459</v>
+      </c>
+      <c r="J73" t="s">
+        <v>454</v>
+      </c>
+      <c r="K73" t="s">
+        <v>460</v>
+      </c>
+      <c r="L73" t="s">
+        <v>461</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>462</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>420</v>
+      </c>
+      <c r="X73" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>464</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>465</v>
+      </c>
+      <c r="J74" t="s">
+        <v>466</v>
+      </c>
+      <c r="K74" t="s">
+        <v>467</v>
+      </c>
+      <c r="L74" t="s">
+        <v>468</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>462</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>469</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>470</v>
+      </c>
+      <c r="J75" t="s">
+        <v>471</v>
+      </c>
+      <c r="K75" t="s">
+        <v>472</v>
+      </c>
+      <c r="L75" t="s">
+        <v>473</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>462</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>475</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>476</v>
+      </c>
+      <c r="J76" t="s">
+        <v>477</v>
+      </c>
+      <c r="K76" t="s">
+        <v>478</v>
+      </c>
+      <c r="L76" t="s">
+        <v>479</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>462</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>480</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>481</v>
+      </c>
+      <c r="J77" t="s">
+        <v>482</v>
+      </c>
+      <c r="K77" t="s">
+        <v>483</v>
+      </c>
+      <c r="L77" t="s">
+        <v>484</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>462</v>
+      </c>
+      <c r="O77" t="s">
+        <v>92</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>485</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>486</v>
+      </c>
+      <c r="J78" t="s">
+        <v>487</v>
+      </c>
+      <c r="K78" t="s">
+        <v>488</v>
+      </c>
+      <c r="L78" t="s">
+        <v>489</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>462</v>
+      </c>
+      <c r="O78" t="s">
+        <v>92</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>491</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>492</v>
+      </c>
+      <c r="J79" t="s">
+        <v>493</v>
+      </c>
+      <c r="K79" t="s">
+        <v>494</v>
+      </c>
+      <c r="L79" t="s">
+        <v>495</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>462</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>497</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>498</v>
+      </c>
+      <c r="J80" t="s">
+        <v>499</v>
+      </c>
+      <c r="K80" t="s">
+        <v>500</v>
+      </c>
+      <c r="L80" t="s">
+        <v>501</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>462</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>502</v>
+      </c>
+      <c r="X80" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>505</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>506</v>
+      </c>
+      <c r="J81" t="s">
+        <v>507</v>
+      </c>
+      <c r="K81" t="s">
+        <v>508</v>
+      </c>
+      <c r="L81" t="s">
+        <v>509</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>462</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>510</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>511</v>
+      </c>
+      <c r="J82" t="s">
+        <v>512</v>
+      </c>
+      <c r="K82" t="s">
+        <v>513</v>
+      </c>
+      <c r="L82" t="s">
+        <v>514</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>462</v>
+      </c>
+      <c r="O82" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>516</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>517</v>
+      </c>
+      <c r="J83" t="s">
+        <v>518</v>
+      </c>
+      <c r="K83" t="s">
+        <v>519</v>
+      </c>
+      <c r="L83" t="s">
+        <v>520</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>462</v>
+      </c>
+      <c r="O83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>522</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>523</v>
+      </c>
+      <c r="J84" t="s">
+        <v>524</v>
+      </c>
+      <c r="K84" t="s">
+        <v>525</v>
+      </c>
+      <c r="L84" t="s">
+        <v>526</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>462</v>
+      </c>
+      <c r="O84" t="s">
+        <v>154</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>527</v>
+      </c>
+      <c r="X84" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>66481</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>530</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>531</v>
+      </c>
+      <c r="J85" t="s">
+        <v>532</v>
+      </c>
+      <c r="K85" t="s">
+        <v>533</v>
+      </c>
+      <c r="L85" t="s">
+        <v>534</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>462</v>
+      </c>
+      <c r="O85" t="s">
+        <v>65</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>535</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_399.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_399.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="620">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Shokkolat</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>RedShoes2019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r591477268-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>We visited Los Angeles June 2018 and stayed at this hotel - Homewood Suites LAX.  IT was the nicest hotel visit we've had in years.  The building is clean, modern, and bright.  We laughed at ourselves figuring out the elevators!  (fun)  Never had to wait.  We ordered room service and it was delivered by a robot!  That was fun.  Even though it's across from LAX, the place is quiet.  I never heard traffic or hall noise. The front desk staff was helpful and friendly.   The location is pretty far from Hollywood so if you are spending all your time on the Walk of Fame just know it's a trek.  Still, we had no problem with transportation.  For the price - this is the best and we will return.More</t>
   </si>
   <si>
+    <t>Sunofthebeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r590842882-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Garen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r586904505-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Avik C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r586549400-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>We picked this place because it is literally walking distance from LAX airport. The rooms are huge and super clean. Bathroom is excellent and clean. Huge TV and free breakfast makes it worthwhile to stay here. The only disclaimer here is that because it is so close to airport sometimes it could be tricky going in and out of the hotel. Overall very good</t>
   </si>
   <si>
+    <t>Kris4355</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r586529223-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -264,6 +282,9 @@
     <t>May 2018</t>
   </si>
   <si>
+    <t>maranawades</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r584600834-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -279,6 +300,9 @@
     <t>Our flight came in late, so we stayed overnight here before driving home the next day.  It is unbelievably close to LAX and the shuttle came just a few minutes after we stepped outside.  We were only in a studio, but it was roomy.  Breakfast was nice and in a private location with helpful staff.  We would definitely stay here again.</t>
   </si>
   <si>
+    <t>jchild65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r583160646-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>Our room was lovely. The bed was very comfortable. Breakfast was a bit puzzling. Plastic disposable bowls for the cereal. Lovely waffles and fruit salad. Parents letting their children run riot and jump all over the furniture on their shoes and the most dreadful pop music and hip hop, truly awful and you couldn’t get away from it. They need to consider putting softer instrumental music on. If you are not a family with children and don’t enjoy being jangled at breakfast then go up the road to the Westin, it’s calm, cool and old school.More</t>
   </si>
   <si>
+    <t>deepcreek2025</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r582942190-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>Enough said. Rooms were extremely clean and very well designed. Nice amenities. Beds were very comfortable and clean (I check the beds thoroughly for any unwelcome visitors). Stayed here four nights. Rental car company located on property. I rented form down the street at budget. I walked to and from facility. You can park at the hotel garage ( operated by joes parking) for $32 day and have in and out privileges. Complimentary breakfast every day. Quality too. Can’t say enough good things about the hotel itself. Walked to airport from hotel for a flight because traffic does back up. The hotel does offer a free shuttle. I do a lot of research when planning a trip. I rely heavily on reviews and how new a hotel is when I book. Price comes second . This hotel has the best of both worlds. The two cons are no liquor at their bar and none for sale in lobby. Also the pool is very small. But overall a great place to stay. You will not be disappointed. I will absolutely return in the future.More</t>
   </si>
   <si>
+    <t>Christopher P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r580609284-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -339,6 +369,9 @@
     <t>I stayed at the hotel for its location. I purchased the stay, park and fly package. Everything came together like clockwork. Up at 3am, shuttle to airport at 4:45am. Return a week later. Pickup at 12:30pm, in car and on the road home by 1pm.</t>
   </si>
   <si>
+    <t>Pua07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r580266694-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -354,6 +387,9 @@
     <t xml:space="preserve">Our experience with Homewood Suites by Hilton at Los Angeles - was absolutely wonderful!  The hotel front desk staff was friendly and always willing to assist in any way (answering questions, etc.).  The valet staff were very helpful with our luggage and wheelchair.  The attendants in the breakfast area were always welcoming and cheerful.  The hotel room was absolutely fantastic.  The hotel suite was exactly as described, the space was tastefully furnished and the room was clean, welcoming and perfect for our needs.  </t>
   </si>
   <si>
+    <t>W1856XYanita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r578710414-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -372,6 +408,9 @@
     <t>This is a great find at LAX. Rooms are huge, with full amenities, and family friendly. The sound proofing is amazing, and it's a five minute journey to most terminals. Food is very good. Comfortable lobby, business area and restaurant. What really sets it apart are the friendly, efficient, professional staff. All of them were great, but to specially mention a few who improved our stay - Angela, Mayra and Liz on the front desk, Alan and Gennessis in the lovely coffee shop, all the super-efficient breakfast team, and Emilio who fixed the dishwasher. We would definitely return on our next trip. Thank you Homewood Suites, expensive for us, but reasonable for this location, and worth every penny.More</t>
   </si>
   <si>
+    <t>Abdullah A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r577883156-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -390,6 +429,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Heather D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r577500508-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -405,6 +447,9 @@
     <t>Excellent location for easy in and out of LAX...only 1 hotel removed from airport access, so no issue with traffic or back up on Century Blvd.  Free shuttle from and to LAX.  Shuttle drivers pleasant and courteous. Quick check in and out, with pleasant staff.  Room clean.  Complimentary breakfast offered a nice variety of food options, not just a continental breakfast, but with eggs, bacon, oatmeal, yogurt, fruit, etc.</t>
   </si>
   <si>
+    <t>mcordry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r576128059-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -420,6 +465,9 @@
     <t xml:space="preserve">We just stayed at this brand new hotel!!! What an amazing experience.  The desk agents were great, the room clean and huge, the breakfast in the morning was plentiful. They even have a little robot named Hannah, that brings things to your door,  if you have forgotten anything.  The location is right next to the airport,  and the shuttles run every 15 minutes. There isn't a lot to do in the area, but Starline Tours will pick you up from the hotel. We could not of asked for more.  And the prices were very reasonable. </t>
   </si>
   <si>
+    <t>MarkG1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r575272470-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -435,6 +483,9 @@
     <t>Great new hotel with large suite rooms with all modern facilities. The staff were extremely friendly and always helpful. We stayed two nights, left some of our bags there while we went up to SF for a few days. Then stayed there on the way out of LA.Highly Recommended if you need to stay near LAX</t>
   </si>
   <si>
+    <t>Helena C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r574829523-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -450,6 +501,9 @@
     <t>Very comfortable accommodation. This hotel offers a fabulous proximity to the airport and rooms which are the size of an apartment. Granted we were in a suite but the kitchen had a dishwasher, huge fridge and every facility needed for self catering. There were really good reading chairs and lamps and the bed was enormously comfortable.Food in the restaurant was delicious and the wait staff were friendly and very helpful.</t>
   </si>
   <si>
+    <t>Meglion424</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r574724458-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -465,6 +519,9 @@
     <t>We were very satisfied with this property for an airport hotel, once we got there.  We got in very late (around 1am), so maybe the shuttle is more reliable at other hours, but we waited about 20 minutes and other hotel shuttles came around, but not this one.  Finally, a very nice driver from another hotel offered to drive us to ours, but when we arrived, the gentleman at the front desk (who was very sweet once he started helping us) was on another (hotel-related) call and made no effort to get off the phone to get us to our room more quickly.  Once we were in the room, however, it was excellent: the room was huge, exceptionally clean, and appointed with a very attractive kitchen including a microwave and dishes, silverware, etc.  The bathroom was beautiful and clean as well, and the bed was enormously comfortable (though all the pillows were uniformly stiff and overstuffed).  Would recommend.  It's also within walking distance of In-n-Out Burger on Sepulveda!More</t>
   </si>
   <si>
+    <t>Clint J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r574278242-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -483,6 +540,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>eeks63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r574024857-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -498,6 +558,9 @@
     <t>This location was perfect!  We were close to everything we wanted to see.  The staff was exceptionally helpful.  The rooms and lobby were wonderful.  We never heard the noise from the airport unless we were outside.  Highly recommend and would stay here again.</t>
   </si>
   <si>
+    <t>davjan672</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r572971240-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -513,6 +576,9 @@
     <t>This was our first stay at the Homewood Suites in Los Angeles.  - prompt check-in- complimentary wi-fi- complimentary appetizer and drink- complimentary breakfast buffet - suite was spacious and nice (didn't hear the outside noise)- kitchenette had regular sized appliances and an island- decor was absolutely beautiful- very clean and modern- staff were all knowledgeable and friendlyIt was truly an AMAZING first impression!</t>
   </si>
   <si>
+    <t>raulmQ2153OW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r570918829-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -528,6 +594,9 @@
     <t>This is a very nice hotel, staff was very helpful and professional. room service was served by automated robot(very cool). location to airport is very convenient and shuttle service is fast. In LA for weekend wiht family.</t>
   </si>
   <si>
+    <t>travelersfromIndy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r570794344-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -552,6 +621,9 @@
     <t>Hotel is newer hotel with lots of bells and whistles.  The front desk staff was nice but we had done a online check in for a room away from the elevator.  When we arrived after 4pm we were told our room wasnt ready but they would put us in a different room and it would also be away from the elevator.  I believe it was the one of the closest rooms to the elevator (516).  The view out the window was completely obstructed by the large metal sign on the side of the building.  The hotel was one of the noisiest hotels I have stayed the doors didn't have any mechanism to slow them from slamming and every time someone next to us opened their door there was a VERY loud slam that followed.  The bed was very soft, not uncomfortable but very soft.  The bathroom was nice and updated.  The pool is super small, the pictures on the website are deceiving. I would not stay here again.More</t>
   </si>
   <si>
+    <t>dvmtraveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r570587360-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -576,6 +648,9 @@
     <t>Overall I did like this hotel. The room was clean, well appointed, and as comfortable as any. It’s situated in a really good spot for the airport, and also for any trips outside of LA. I saw one review call the neighborhood “sketchy”, but I never felt unsafe. On the downside ( depending upon your needs &amp; opinions)— the pool is weirdly located, outside the front door and adjacent to the road ( I’m Sure it’s the only space they had).  Also the parking garage needs serious updating ( the elevators are scary, and the traffic patterns a bit wonky). Did not use onsite restaurant, so no opinion there. Overall I felt this was a good choice for us ( college visits/ hiking/ visiting).  More</t>
   </si>
   <si>
+    <t>Thunces</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r569585676-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -591,6 +666,9 @@
     <t>Stayed one night before an early early early flight out of LAX. Wish we could have spent more time here.  New hotel, super friendly staff, clean room with high ceilings and a nice little kitchen.  Will be back if ever th  need presents itself.</t>
   </si>
   <si>
+    <t>keynenwall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r569580810-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -601,6 +679,9 @@
   </si>
   <si>
     <t>Awesome hotel. Modern features, helpful staff. The price I'd a little more than other LAX hotels, but it's a suite, and everything is brand new. Well stocked with kitchen utensils, keurig coffee machine, smart tv, etc. Great for out family.</t>
+  </si>
+  <si>
+    <t>ericsQ9535HG</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r568776519-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
@@ -625,6 +706,9 @@
 Room: Still retains the brand new aroma smell! We had 2 Queen Beds on the 5th floor, Room 511 (View of parking lot and parking garage).  Very quiet.  Rooms were very CLEAN and Spacious.  windows are huge.  Ceilings were higher than typical hotel rooms.  They have dressers with a full size closet.  55/60 inch tv.  A Full size kitchen, with full size refrigerator with Ice Maker,...We spent last couple of days of Spring Break in LA from 14-17 March 2018.  Since our last visit, we have decided to make it a point to stay at a hotel near the airport.  Being near the airport was quite convenient, especially, when the hotel provides a 24 hour shuttle, but, most importantly, it allows us not to deal with the unexpected traffic situations you may encounter, when having to catch a flight. I must say that the Homewood Suites by Hilton Los Angeles International Airport is Amazing! 1 to 2 minutes from Airport and about 5 to 10 minute (with traffic lights) drive from rental car companies.  Tons of places to dine and are close to the hotel. Complimentary Full Breakfast every morning from 6:00-9:00AM (Each day) was a Plus.  Evening Social from Monday-Thursday.  (NOTE:  They are still waiting on their Alcohol License to start selling alcohol at the hotel, but not to worry, you can always buy outside and bring to your room.  Close to Manhattan Beach, Santa Monica Pier, etc.Room: Still retains the brand new aroma smell! We had 2 Queen Beds on the 5th floor, Room 511 (View of parking lot and parking garage).  Very quiet.  Rooms were very CLEAN and Spacious.  windows are huge.  Ceilings were higher than typical hotel rooms.  They have dressers with a full size closet.  55/60 inch tv.  A Full size kitchen, with full size refrigerator with Ice Maker, microwave, 2 range burners, dishwasher, pots, pans, utensils and Keurig. The kitchen was a huge PLUS, since we were able to buy groceries and prepare meals, rather than always eating out.  table seating 4 easily.  Bathrooms were spacious.  Glass sliding doors for showers.  Complimentary Shampoo, soap and lotion provided.Amenities: PARKING:  Valet $44.00/Self Parking $31.90.  Business Center, Gym (Small), Pool (Small), ATM, Coffee Bean &amp; Tea Leaf and Subway on back side of hotel, Mini store.For Military families, the convenience of the Los Angeles Air Force Base is a PLUS. About 10/15 min from the hotel. A full size Base Exchange/Food Court and Commissary. Medical Facilities, etc. I believe they open from 1000AM-6:00PM.On site Laundry facility - Not a Coin Laundry.  Takes only Credit/Debit Cards.  I used facilities twice.  29 Min (Wash) and 60 Min (Dryer).  I believe they had 8 washers and 8 dryers.  I was quite satisfied with the laundromat, Very CLEAN and well maintained.You will NOT regret staying at the Homewood Suites by Hilton Los Angeles International Airport. This is a Great option for business folks or families. My family and I enjoyed our stay and will definitely be staying here on our next visit to LA.More</t>
   </si>
   <si>
+    <t>UkLioness</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r566260720-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -643,6 +727,9 @@
     <t>Stayed here for a few nights recently. The free shuttle from the airport took a little while to arrive as I had just missed one. Make sure you locate the red signs saying "Hotel Shuttles".  The journey took less than 10 mins. Check-in was ok. Room was adequate with a king size bed and kitchen facilities and modern bathroom. There was a living area with a sofa and huge widescreen TV.  Breakfast room was a little hard to find at first but once you know where it is, you're set. It is off to the side of the elevators on the second floor.  Breakfast items were adequate and set you up for the day.  The breakfast staff are very friendly and pleasant.  There is a coffee shop and Subway shop adjacent to the hotel and there is not much in the immediate vicinity but there is a Bus Station located behind the hotel about a 10 min walk and there are buses that can take you to Santa Monica etc. There is also a CVS and Ralphs Supermarket and other shops about a 15 min walk in an area called Westchester Village. The Hop On-Hop Off Stop sightseeing buses also stop nearby which is handy if you want to visit Hollywood etc.I will definitely return to this hotel as its proximity to the airport makes it an ideal location.More</t>
   </si>
   <si>
+    <t>Dr Lisa  M C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r564776144-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -661,6 +748,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>phil_sllvn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r563229100-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -676,6 +766,9 @@
     <t>Great staff on check in - didn't have to wait long for shuttle to hotel from airport. Studio suite was clean, modern and spotlessly clean. TV was huge. Bathroom/shower was great.Bed comfortable. Room was a little sterile/business like but it did the job for us.</t>
   </si>
   <si>
+    <t>hannyherrada</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r561738016-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -700,6 +793,9 @@
     <t>Went to Cali for the weekend with the family. Hotel is beautiful and modern. Overall experience was good. Special thanks to Alfredo from the restaurant he treated us like royalty and also Elen from the front desk she was very caring and helpful.More</t>
   </si>
   <si>
+    <t>cheqisluv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r561563073-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -721,6 +817,9 @@
     <t>I found this Hotel on New Year’s Eve. I made a reservation through one of those 3rd party apps that didn’t pan out but anyway. I found it online so I called and made a reservation(I got really lucky on NYE), running around like a chicken with its head cut off. So I was able to reserve the room in which I thought would be super expensive b/c it was NYE. I was impressed with having to use the key card to get on the elevator to get to my room. So I checked in and went up stairs and when I tell you I couldn’t believe how beautiful this room was it was super clean and nice decor. Since I’ve been duped by other Hotels I did a thorough check. The bathroom was CLEAN no dirt in the tub, the toilet was clean and no ring around the inside and the sink was clean to. I even checked the kitchenette. Microwave,dishes, fridge, stove and the counter was excellent.  I love to go to nice hotels and stay overnight. I just spent Valentines Day here and it was just as nice. I will return and recommend this hotel.More</t>
   </si>
   <si>
+    <t>Procaccia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r561119164-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -736,6 +835,9 @@
     <t>Spacious room, big bath room, excellent shuttles to car rentals and terminals. Very comfortable indeed. The only lacking service is a decent restaurant, the present one has no license for alcoholic beverages and it has no soup on the menu, the bestthing after a long flight. I hope that this will be improved soon to offer the tired traveler an excellent respite before the next flight.</t>
   </si>
   <si>
+    <t>paul2005Loughborough</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r557657220-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -754,6 +856,9 @@
     <t>It was my first time staying at this new hotel great location the transportation from LAX to the airport was like five minutes the van driver was friendly and informative unfortunately the girls at check-in desk where not no welcome as a diamond member More interested in chatting then checking me in. But my roommate was great plenty of room light Brite great bathroom but without a doubt the best part of my stay was jem Who works in the breakfast area she came over to my table to inform me that breakfast was finishing in 10 minutes if I would like anything else please help myself now she was very informative very friendly with so much enthusiasm for this new hotel she was telling me she was hoping to transfer to front desk after my experience I hope she does  I would definitely stay at this hotel again and hopefully Jem will be there to welcome me next time at front deskMore</t>
   </si>
   <si>
+    <t>mrsn_robinson06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r557593700-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -769,6 +874,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>juliette5280</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r557384712-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -782,6 +890,9 @@
   </si>
   <si>
     <t>The staff at this location were helpful and friendly. My husband was sick for the first part of the stay and the staff all showed concern for him and checked on us regularly. The room was clean and spacious, very relaxing and comfortable. There was a complimentary breakfast that changed every morning and was great! There was a shop down in the lobby that gave us everything we needed that we didn't bring with us and was crucial due to my husband being ill. We very much enjoyed our stay here and will definitely be staying again!</t>
+  </si>
+  <si>
+    <t>ny traveler 02</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r555723365-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
@@ -810,6 +921,9 @@
 - rooms are LOUD with airplane noise, if that bothers you.
 - the breakfast room is just strange.  it seems like it's in a couple of converted hotel rooms on the 2nd floor (not in the  lobby), and is accessible with your room key.  food is ok - 2 types of eggs, some sad fruit and a small bowl of yogurt, watery oatmeal, turkey sausage (no bacon), potatoes, waffle maker, bread/bagels, coffee/tea and juices. basic but nothing to write home about.  service in the breakfast room was very good; workers were friendly and cleared dishes quickly.
 i also stayed at the residence inn very recently; rooms at homewood are nicer and newer but breakfast was...if you want spacious, brand new (it smells new when you open the door to your room!) and as close to the airport as you can get, this is the hotel for you.  the reason i didn't give it 5 stars:- homewood and h hotel share the building and there are 2 checkin desks right next to each other.  late at night, only one was open.  all a bit confusing.  i think each hotel takes different floors; maybe h hotels are a bit cheaper, are not suites, do not have access to room w free breakfast, etc.- the hotel shuttle took over 40min late at night, while i saw other hotels with shuttles pass by multiple times.  shuttles in the morning were great.- rooms are LOUD with airplane noise, if that bothers you.- the breakfast room is just strange.  it seems like it's in a couple of converted hotel rooms on the 2nd floor (not in the  lobby), and is accessible with your room key.  food is ok - 2 types of eggs, some sad fruit and a small bowl of yogurt, watery oatmeal, turkey sausage (no bacon), potatoes, waffle maker, bread/bagels, coffee/tea and juices. basic but nothing to write home about.  service in the breakfast room was very good; workers were friendly and cleared dishes quickly.i also stayed at the residence inn very recently; rooms at homewood are nicer and newer but breakfast was better at residence inn.  either would do for a layover, etc.More</t>
+  </si>
+  <si>
+    <t>gearphun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r555177041-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
@@ -854,6 +968,9 @@
 Searched on Yelp showed a few other properties nearby that had full service restaurants. We chose the Hyatt Hotel right next door. See my review on this fine dining....I only stayed here for one night - catching a flight out early the next morning…This Hotel is newly remodeled with another hotel "The H Hotel" contained within; although I could not tell where one was different than the other?The room was clean, big and roomy, but it had seemed as if I was next to the LAX tarmac. OK I get it! A hotel by the airport you would expect some airplane noise but at-least they would have sound proofed the rooms better or the windows?The bathroom door was closed so when I opened it there was a pungent odor that permeated. It was not sewer but a chemical smell, very unpleasant.I left the bathroom fan run and went out with my associates for dinner. When I came back it was less noticeable.No less, my sleep was not pleasant because of the noise of LAX and the pillow comfort. The pillow are too soft for me and my head sinks way down in these. As a side and stomach sleeper these pillows will not do. Unfortunately, and like some other properties, there were no firmer pillows to choose from.Since they are newly remodeled the in house restaurant did not have a liquor license, yet. Searched on Yelp showed a few other properties nearby that had full service restaurants. We chose the Hyatt Hotel right next door. See my review on this fine dining.To make matters worse the breakfast in the Hilton Lodge was terrible. Only one choice of yogurt, it was slopped in a shallow tray. very unappealing. The hot entries were not appetizing . I ended up having the oatmeal which was watery. Very Disappointed.More</t>
   </si>
   <si>
+    <t>MOKROK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r555089075-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -869,6 +986,9 @@
     <t>We decided to have 1 night at the hotel to rest before our flight back to Australia. This hotel was perfect for this. Big clean room, free breakfast, evening drink and the pool was a nice touch! The free shuttle made LAX a little less stressful.</t>
   </si>
   <si>
+    <t>vanessamF2522KA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r554452234-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -879,6 +999,9 @@
   </si>
   <si>
     <t xml:space="preserve">Amazing hotel! Suites were clean and had everything you can need - especially if travelling with children. I didn't use the kitchen much, but thought it was a great feature. Staff is friendly. Only downside was no hot tub and very expensive parking. Otherwise, I will be returning with my kids very soon! </t>
+  </si>
+  <si>
+    <t>nola1961</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r554401241-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
@@ -908,6 +1031,9 @@
 A call to the front desk and bedding was brought up for the sofa bed.  Since we were in the...We stayed at the Homewood Suites; once in December 2017 on our way out of the country and again in January 2018 on our way back.  We had a long lay over and thought we'd spend the night at a nearby hotel to LAX rather than stay in the terminal.To get to the hotel, easy access.  Just walk outside to the curb from baggage claim and wait under the red sign for hotel shuttle.  Very short drive since the hotel is right off of the airport property.  All of a 10-minute ride.Very modern hotel; the most modern we've ever stayed.  The first stay was a point reward stay and the second was a paid stay.The first stay, the reservation was in order.  Was in the room in less than 10-minutes.  The second stay, took a bit longer.  At first said I didn't have a reservation and the hotel was sold out.  But then, voila!  my reservation was found.  Suspect.The room is a mini apartment.  The only regret is we only spent a few hours.  Very comfortable room.  Lots and lots of space.The first time, we had a room w/ two double beds.  Even though the 2nd reservation was for 2 double beds, had a king and a sofa bed.  We are a party of 3.A call to the front desk and bedding was brought up for the sofa bed.  Since we were in the room less than 6 hours it was fine.The elevators are some of the most interesting I've ever seen.  Since we left the hotel before 6:00AM both times, we missed the breakfast buffet.Very easy to catch the shuttle back to the airport.Would stay again but be careful of your reservation.More</t>
   </si>
   <si>
+    <t>kathleenmL1189TV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r554295375-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -923,6 +1049,9 @@
     <t xml:space="preserve">Very spacious room and apartment like feel of the immaculately clean room! We loved the big screen TV and all the channel choices, along with the comfortable beds and sofa sleeper. My husband, three children, and I were very comfortable in our beautiful accommodations! </t>
   </si>
   <si>
+    <t>Christopher S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r552046450-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -938,6 +1067,9 @@
     <t>Very Clean and Modern Hotel. AAA+++ on Hotel looks. Excellent Shuttle service and Staff friendliness. Close to LAX as noted. Traffic noise cam be an issue with front facing rooms as mine was. Coffee in room but no Tea.</t>
   </si>
   <si>
+    <t>Moshe P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r551555103-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -953,6 +1085,9 @@
     <t>Brain New hotel Writh On the AirportVery nice and eficient The breakfadt îs a dizasterThe rest îs excelent The service to the AirPort very goodAll the ține every 20 minutsVery nice staff that jumping to help</t>
   </si>
   <si>
+    <t>D.B.1976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r551216024-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -968,6 +1103,9 @@
     <t>Just a few minutes from the terminals and there is a hotel shuttle.  The hotel is either new or newly remodeled with a modern but appealing design.  Large comfortable rooms with a good size HDTV.  Breakfast was good.  We stayed here after a late arrival and it was perfect for our needs.</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r549717651-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -983,6 +1121,9 @@
     <t>Great location for early morning travelers leaving LAX or late arrivals to LAX.  Beat LAX traffic. Rest in quiet and comfort. Staff were very helpful and attentive. The hotel  restaurant food was above average.</t>
   </si>
   <si>
+    <t>Chouliha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r549628584-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -998,6 +1139,9 @@
     <t>Stayed one night as we were flying out the next day.  Room was large, very comfortable, And very clean.  Staff was a delight and couldn’t be nicer. There is parking next door- for an extra fee. Would stay here again</t>
   </si>
   <si>
+    <t>Quedog01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r549573049-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1013,6 +1157,9 @@
     <t>This is actually a very nice new hotel.  I stopped by for a few nights during a quick LA stopover.  I know this is a new property, but it seemed a bit sparse...room setup and decor, breakfast in the lounge, etc;  My impression was an attempt to save money and keep room rates low.  Fair enough.  That said, other impressions.  I found the front desk staff somewhat uneven.  Daytime staff seemed to welcome the interaction and some of the later afternoon staff worked to avoid contact in the event I should ask them for something.  The breakfast was not extensive, but warm and the staff policed the area quite well.  One tip for visitors - try to get there early.  The space comfortable but if there are families there you might have to wait for some food items.  The location is excellent and very close to the airport.  That said, - yes, I will stay here in the future.  I hope to encounter more of the friendly staff next time.More</t>
   </si>
   <si>
+    <t>kayw278</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r548624577-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1028,6 +1175,9 @@
     <t>Our stay at the Homewood Suites by Hilton was great. Room was very nice and spacious, complimentary breakfast was very good and staff was very friendly and helpful. I would definitely stay here again.</t>
   </si>
   <si>
+    <t>debbiejo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r548445430-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1046,6 +1196,9 @@
     <t>This is a brand new hotel which has only been open for a couple of months and is located very near to LAX.  The hotel is actually 2 hotels in one.  Higher floors are the Curio and the lower floors are the Homewood Suites.  I stayed at the Homewood Suites which was very nice.  The room was a king suite with a kitchen and very modern design.  There is a small pool out on the first level of the hotel on the Century Avenue side.  The gym is on the 3rd floor.  Nice viewing area up on the 12th Floor to see planes coming into the airport.  Note that since this hotel is very close to LAX ou will hear planes until late at night and starting up early in the morning.  Breakfast is included at the Homewood Suites and there is enough to  your day started.  There is a Coffee Bean &amp; Tea Leaf at the hotel that gives hotel guests 10% off their purchase which is nice.  There is also a Subway next door to the Coffee Bean &amp; Tea Leaf.  Otherwise, the hotel has a restaurant that you can eat at for a more upscale experience.  There is a shuttle that runs to the airport.  Daily parking may be a bit pricey here.  I would stay here again for early or late flights in and out of LAX.More</t>
   </si>
   <si>
+    <t>Co F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r548041684-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1061,6 +1214,9 @@
     <t>Alvin really took care of me on my visit. I had a last minute reservation and he was so helpful in getting me a room. He made the check in process smooth and I will definitely be recommending this hotel to friends!</t>
   </si>
   <si>
+    <t>Sheila E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r547423543-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1085,6 +1241,9 @@
     <t>The perfect stay. If I had the opportunity again, this is my favorite. Wish my business trip would have been longer. The airport shuttle was convenient and easy to get. No worry with the complimentary breakfast and WiFi. Luxury and modern in suite accommodations that accommodate guests. More</t>
   </si>
   <si>
+    <t>jennykH7123CK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r547294946-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1103,6 +1262,9 @@
     <t>Overall it's a very pleasant stay for us. Location is very good. Room is fairly big. We love the bathroom. It is very modern. Our only complaint is the shower water current which is a little weak. But we accept it because it's water saving for environmental purpose.More</t>
   </si>
   <si>
+    <t>TravelingPrincessWT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r547100705-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1130,6 +1292,9 @@
     <t>I travel a lot for business.This hotel is a great location to unwind at the end of the day before catching an early morning flight.  The evening buffet is quite a spread with different hot choices.  Was missing adult beverages(!) so I went to the bar.  Waited about ten minutes and was never served so i left.  (I am not a fan of waiting around to see if someone gets around to taking an order. )Can walk over to the airport from this hotel.  And, there is a shuttle service. Make sure that you get a room on the backside of the hotel.  The front of the hotel is noisy.More</t>
   </si>
   <si>
+    <t>805geofft</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r546753729-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1148,6 +1313,9 @@
     <t>The room was very spacious and clean. The breakfast was excellent. The evening socials  (Monday thru Thursday ) were excellent  and were adequate as an evening meal. Overall service especially room service was excellent. We would definitely stay there again. We were on the 3rd floor of 12 and next time would request a higher floor for a better view of the surroundings.More</t>
   </si>
   <si>
+    <t>robertbL6419HL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r546528912-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1160,6 +1328,9 @@
     <t>Homewood Suites was a nice place to stay. The room was clean. The bed was comfortable, the air conditioner worked well, the shower was nice. The breakfast was great. The shuttle was quick and very convenient.</t>
   </si>
   <si>
+    <t>Kirsten D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r546325992-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1175,6 +1346,9 @@
     <t>This is a very clean and great accommodations. They were very helpful upon check-in, and check out. They provided a shuttle to the airport. The restaurant was amazing the vary of choices was great too. The snacks and things are nice to take to the room and to eat for breakfast</t>
   </si>
   <si>
+    <t>victormU6411DN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r544503163-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1199,6 +1373,9 @@
     <t>A newer hotel; rented the king studio suite with a small kitchen...has all the trappings of a stylish hotel.  Advanced check in was very fast check in with the app- showed I’d and the key was handed over.  Staff were very efficient.  More</t>
   </si>
   <si>
+    <t>S4177WLvirginiag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r544351798-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1214,6 +1391,9 @@
     <t>My overall experience was good.  My only complaint was the temperature of the outdoor swimming pool.  Temp was probably  in the low 70's....nippy!! But, overal...a great experience close to LAX!!  Would stay again!!!</t>
   </si>
   <si>
+    <t>luissM6110BF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r543944714-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1229,6 +1409,9 @@
     <t>very good sound insulation, considering hotel was blocks away from LAX ... I was expecting a lot of airplane noise, but did not hear any. even next door &amp; corridor sounds are insulated.  comfy beds, clean carpets, good lay-out, clean bathroom &amp; kitchen, delicious breakfast.  loved our stay ... family enjoyed.</t>
   </si>
   <si>
+    <t>Melanie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r543277088-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1244,6 +1427,9 @@
     <t>Absolutely beautiful, modern facility. Wonderful business room &amp; "living room" experience for guess. Tiny pool but very clean. IF you have allergies to food or want to be healthy in your food choices, you'll need to dine elsewhere. IF you don't care about processed foods, great sugary food choices, calories or could care less about weight gain from wheat produces &amp; fatty meals, you'll have no problems with breakfast or evening social. This hotel's location is IDEAL for LAX. Loved my suite - ultra modern is the key here and this hotel hits the mark. Complimentary newspaper, wi-fi, common spaces are inviting.</t>
   </si>
   <si>
+    <t>Roving_Bill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r543054408-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1268,6 +1454,9 @@
     <t>Apart from the unlicensed ‘bar’ there is little to dislike here. Enormous rooms, gigantic TV, cavernous fridge - great facilities all round really. Lovely staff and generally an excellent place to stay. And the lack of a bar is no problem, there’s one just across the street and the staff will happily direct you over. Convenient for the airport it is high standard and a great place to stopMore</t>
   </si>
   <si>
+    <t>Bradley P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r543099081-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1283,6 +1472,9 @@
     <t>This is the best room in LA! Full kitchen, breakfast table for work or meals, full size sofa, chair, work desk. Convenient if you are working the area and close to the rental return at LAX. Best Hilton property I've ever stayed in.More</t>
   </si>
   <si>
+    <t>VisitorKB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r542078458-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1307,6 +1499,9 @@
     <t>This is an excellent property with  modern, spacious and beautifully appointed rooms.  The service and staff were great. The parking upon arrival was frustrating with only 4 available spaces for checkin guests but the valet was eventually helpful. More</t>
   </si>
   <si>
+    <t>Tom M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r541827637-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1331,6 +1526,9 @@
     <t>Very convenient to airport with less than a  a 5 minute ride on free shuttle. Beautiful new property. Room was very nice suite with a big kitchen / living area.  Big bedroom and bathroom. All in brand new, excellent condition.  Restaurant is in the property with other choices within other hotels in the area.  Staff was very good.  I would stay here again.More</t>
   </si>
   <si>
+    <t>Kim E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r541579705-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1349,6 +1547,9 @@
     <t>Good location to drop and pick up friend who came for concert weekend. Easy to get to beach, downtown LA. Not much within walking distance you need a car if staying here. Suites were super! Lots of room and beds super comfy.More</t>
   </si>
   <si>
+    <t>dano5659</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r540459692-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1367,6 +1568,9 @@
     <t>Everything was perfect! Great location for an overnight stay while traveling to Hawaii. The bed and bedding were superb and helped me get a good nights sleep. Free breakfast was very good; quality food and variety. A convenient shuttle to and from the airport was nice. Hilton sure does it right. More</t>
   </si>
   <si>
+    <t>chnalvr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r540426347-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1382,6 +1586,9 @@
     <t>I stayed here for two nights and will return here again. It is a brand new hotel, very attractive and modern, which is much needed near LAX since the hotels tend to be old and dated. The staff was friendly. The breakfast was tasty. The suites were spacious and well-insulated. I never heard cars, aircraft or neighbors! You can easily walk to the airport from these location. I will stay here again for sure!More</t>
   </si>
   <si>
+    <t>ronaldw545</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r540331393-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1400,6 +1607,9 @@
     <t>the hotel is actually two in one the Homeward suites and the H hotel. the second is a boutique hotel great of a young person or someone wanting  privacy and style. Homeward offers a good business or family friendly facility. breakfast and evening social are included. The Hotel also offer a Robot that can deliver food to your room. As of Nov 2017 this is a new maybe month old hotel and looks very nice. One block from LAX they offer parking for long term and shuttle service to get you there and pick you up. Highly recommend this facility.More</t>
   </si>
   <si>
+    <t>Debbie186311</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r539772935-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1418,6 +1628,9 @@
     <t>I have stayed at many of the LAX hotels and can say this is the best. Beautiful decor, spacious room and fantastic staff. Don't stay anywhere else! I will return on my next visit. A big thank you to the Manager and staff, outstanding.More</t>
   </si>
   <si>
+    <t>Shaunda T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r539243475-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1436,6 +1649,9 @@
     <t>The hotel is beautiful.  Love the location, the way the rooms are arranged and the decor.  As a Hilton member I thought I'd get a bag of water, at least, upon arrival but I guess I haven't acquired enough points for it.  My room was very clean with the exception of a few strands of hair in the shower drain.  Other than that it was so comfortable that I could live in it if I had to.  Didn't hear much noise from my neighbor other than their main door closing or their alarm clock going off for a while.  The traffic &amp; airplane noises were there but not really noticeable.  Really, really liked the high ceilings &amp; all the windows which i mostly kept opened even at night.  As a decor tip I'd encourage using those shades that allow light to filter through while adding a bit of privacy instead of the drapes / curtains.  The windows are way too pretty to be hidden by drapes unless the intent is to use them as a sound barrier.  Check-in was quick &amp; spot on.  Initially the system gave me room 609 but I asked my attendant if it was at the end of the hall &amp; she nailed it when she changed it to room 221.  My room attendant was very pleasant even the other lady who followed up behind her to confirm the 1 day I didn't need service.  The...The hotel is beautiful.  Love the location, the way the rooms are arranged and the decor.  As a Hilton member I thought I'd get a bag of water, at least, upon arrival but I guess I haven't acquired enough points for it.  My room was very clean with the exception of a few strands of hair in the shower drain.  Other than that it was so comfortable that I could live in it if I had to.  Didn't hear much noise from my neighbor other than their main door closing or their alarm clock going off for a while.  The traffic &amp; airplane noises were there but not really noticeable.  Really, really liked the high ceilings &amp; all the windows which i mostly kept opened even at night.  As a decor tip I'd encourage using those shades that allow light to filter through while adding a bit of privacy instead of the drapes / curtains.  The windows are way too pretty to be hidden by drapes unless the intent is to use them as a sound barrier.  Check-in was quick &amp; spot on.  Initially the system gave me room 609 but I asked my attendant if it was at the end of the hall &amp; she nailed it when she changed it to room 221.  My room attendant was very pleasant even the other lady who followed up behind her to confirm the 1 day I didn't need service.  The breakfast was delightful.  I really liked that they tried to change it up each day.  The staff was too sweet &amp; accommodating.  The evening social was delightful as well (wished it was available on the weekends too...hint).  The price for the food in the pantry downstairs was a bit pricey compared to where I'm from ($3 for water &amp; $4 for candy, really?).  All in all, I really enjoyed it &amp; will stay again should my travels return me to LA.More</t>
   </si>
   <si>
+    <t>SweetMel84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r539236074-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1454,6 +1670,9 @@
     <t>What more can be said then it was an impressive room for a Homewood Suites! We had a corner room with tall windows, spacious, comfortable, clean and that feeling of home! Even had company while here and my daughter-in-law commented that the room was larger than most LA apartments! Asked for an extended check out time since son &amp; d-i-l came up to visit, was granted it. Had an early afternoon flight out and was very convenient to LAX. Would recommend this hotel and would love to stay here again!More</t>
   </si>
   <si>
+    <t>adrianlZ7496PF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r538142835-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1469,6 +1688,9 @@
     <t>Staff double booked my room and had a random intoxicated guy walk in my room and say he was checked in the same room. This happened late at night when I was getting undressed and was a horrible experience. Hotel was very clean and well kept but bad incident. No accommodations by staff for this major issue.</t>
   </si>
   <si>
+    <t>Journey_Delight</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r537803474-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1487,6 +1709,9 @@
     <t>This is the first time that our family stay in a Homewood Suite. We chose this hotel due to its very close proximity to LAX since we had a morning flight. We were a family of 3 adults and 2 young children. The room was very spacious. It had a sizeable kitchen with a counter. There was a large refrigerator and a large microwave. It has all the convenience a family would need.During our stay, we only found out that the hotel was only opened about a month ago. The service was fantastic, from the check-in to the bell/porter service. The hotel provides complimentary continental (light) breakfast to all guests.I would highly recommend this hotel to guests who would be catching a flight out of LAX the following day. It's best to relax in a spacious hotel with all the amenities prior to boarding a flight the following day. We would definitely stay here again during our next holiday in Los Angeles.More</t>
   </si>
   <si>
+    <t>Stephen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r537755467-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1502,6 +1727,9 @@
     <t>Best location if you have a morning flight out of LAX.  The staff was great.  The room was perfect.  They even have a robot butler named HANNAH that delivered a water bottle to my room.  Didn’t even notice the traffic sound outside the room.  Highly recommend.</t>
   </si>
   <si>
+    <t>Mass_SnowBird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r536767173-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1515,6 +1743,9 @@
   </si>
   <si>
     <t>We stayed one night to be able to catch an early flight out in the morning.  The building is brand new and the suite was excellent.  We enjoyed the evening social and the free breakfast.  The free shuttle to the airport saved us having to wait for a cab or Uber.  The price was very good for the LA area.</t>
+  </si>
+  <si>
+    <t>Geordie405</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r536489818-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
@@ -1545,6 +1776,9 @@
 Other than that, very difficult to find fault with what is a...Stayed at the Homewood Suites for one night earlier this month.  All of the hotels I would usually stay at when in Los Angeles were either fully booked or exorbitantly priced and so I ended up here.It's a brand new hotel - only been open two weeks according to the staff when I checked in.  With the exception of a missing ceiling tile in the corridor outside my room it was hard to fault.  Only criticism was no bottled water in the room, although the Front Desk was happy to provide a couple of complimentary bottles.Bed was comfortable, TV was good, shower was powerful, linens were clean and fresh.  In short, everything was as you'd expect it to be.We didn't eat at the hotel as we arrived late and had an early start so can't comment on the food.  The lack of a liquor license meant we also didn't visit the bar but the staff were able to recommend somewhere very close by which hit the spot.Only other minor criticism is that we had to wait longer than advertised for the complimentary shuttle from LAX to the hotel.  We were told it ran every 15 minutes but our wait was closer to 40.  Given how close the hotel is to LAX and even allowing for bad traffic I felt the wait was too long.Other than that, very difficult to find fault with what is a very stylish and modern new hotel.  Would certainly stay again!More</t>
   </si>
   <si>
+    <t>Kimberly C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r535995608-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1563,6 +1797,9 @@
     <t>This hotel is BEAUTIFUL. The rooms are spacious and clean and very well decorated. It's near LAX  but must be very well built because my sleep was not interrupted by any plane noise. The restaurant food was very good but I did not care for the complimentary breakfast items. The 2nd floor location was huge and very comfortable. They should try eggs prepared to order like Embassy suites. The rooms far exceed Embassy but the breakfast items could be improved. The staff on duty was very attentive. They are still waiting on a liquor license but the suites can fully accommodate anything you want to bring. They will even do grocery shopping for you if needed - now THATS SERVICE!The manager Josh is a like no other I have ever experienced. He cares about the guests and wants everyone's experience to be outstanding. The parking is a little confusing because it's shared with other users. I did not like the garage being detached from the hotel. They have an excellent coffee shop and a subway sandwich connected which was very convenient as well.I LOVE THIS HOTEL AND WILL TRY IT AGAIN IN A FEW MONTHSMore</t>
   </si>
   <si>
+    <t>ljceb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r535614768-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1587,6 +1824,9 @@
     <t>Arrived at 4 am, after a 5-hour delayed flight, to find out this hotel runs an audit from 4-5 am and it is impossible to check-in.  This is the last thing you want to hear after 15 hours of traveling from Hawaii to LAX.  An airport hotel should be prepared to check-in guests at any hour.More</t>
   </si>
   <si>
+    <t>pennypr05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r535531815-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1600,6 +1840,9 @@
   </si>
   <si>
     <t>amazing brand new clean ..... great for one bedroom for a family of 5. the kids where amazed with the service robot they have..... loved that it was so close to the airport! the shuttle picked us up at the airport terminal left us right at the hotel... free great breakfast....</t>
+  </si>
+  <si>
+    <t>jeandT3110MK</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r535177243-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
@@ -1626,6 +1869,9 @@
 We had an ADA room so it was slightly larger but similar to the management pictures. There is a door bell and buttons near the door to select/indicate whether you want housekeeping or not be disturbed. Room is very spacious and nicely furnished.  Comfortable bed/pillows.  Ours had button controlled drapes/blackout drapes. Cool!  Nice kitchen with 2 burner stove top and enough to enable you to cook if you are...We stayed here about 2 weeks after they opened.  Very nice new hotel! Contemporary furnishings and some high tech features.  We stayed 1 night to catch an LAX flight the next day. Booked with points from a 3rd party. The hotel is located just outside LAX.  We took the shuttle from the airport.  It is a red/blue van with Joe's Parking and Homewood Suites/H Hotel markings.  Timely (every 15-20 min) and polite drivers. There are 2 hotels in this one building: The Homewood Suites and the H, both Hilton, so as you enter it is a bit confusing which desk to go to. The Homewood Suites desk is the one to the right. Front desk staff was friendly and helpful. The elevator has an exterior floor selection screen.  To call the elevator, you select the floor or tap your card and it tells you which elevator to take.  Once in the elevator there are no buttons which feels a bit different.  Signage is good and it's easy to find your room.We had an ADA room so it was slightly larger but similar to the management pictures. There is a door bell and buttons near the door to select/indicate whether you want housekeeping or not be disturbed. Room is very spacious and nicely furnished.  Comfortable bed/pillows.  Ours had button controlled drapes/blackout drapes. Cool!  Nice kitchen with 2 burner stove top and enough to enable you to cook if you are so inclined.  Keurig coffee machine. We had a corner room with a view of Century Blvd and the Joe's parking next door. We did not have a car but it looked like parking for the hotel was to the right of the parking garage facility (blue trim) in back of the hotel.  Check out the roof deck on the 12th floor. Amazing views and great area to sit and relax. Pool was small but adequate to cool off or amuse the kids for a while.  You can hear some traffic noise and air traffic but we could sleep through it.They are admittedly still fine tuning some things. Housekeeping could be a bit more through.  Found multiple hairs in the bathtub/shower which always disappoints me. No reason for that.  Business center is 2 computers in the lobby area.  No chairs to sit so it was a bit awkward to stand and type to check in for our flight.We ate at the hotel restaurant.  Good burgers and again high tech ordering with a tablet. Free Breakfast was adequate and standard for the chain. Staff was attentive and helpful.This is a solid very nice new hotel near LAX.  We would definitely stay here again.  Want to have the robot bring me a drink next time!More</t>
   </si>
   <si>
+    <t>LeAnns_travels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r534194999-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1644,6 +1890,9 @@
     <t>I always book a hotel close to the airport before I fly back home at the end of a trip. This hotel was brand new and the most clean hotel I’ve ever stayed in. A few people told me it had only opened the previous week. The rooms are a great layout with high ceilings, great bathrooms, AWESOME black out curtains, huge TV, and even a garbage disposal if you feel the need. Everything felt very high end, including the Willy Wonka elevator that just takes you to where you need to go. They had a great happy hour schedule posted in the room for the reception area and a standard Hampton style waffle/biscuits and gravy warm breakfast. Shuttle was waiting on me in the morning and ran every 10-15 min and went straight to the airport without other stops. I would DEFINITELY stay here again. More</t>
   </si>
   <si>
+    <t>hpracas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r533037538-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
   </si>
   <si>
@@ -1666,6 +1915,9 @@
   </si>
   <si>
     <t>Stayed here for overnight stay and I'm glad as the rooms are great, Great tall rooms and very large, close to airport  Very affordable, great and friendly staff....would definitely stay here again, and next time will stay much longer if I can. More</t>
+  </si>
+  <si>
+    <t>John M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d12631366-r531858058-Homewood_Suites_by_Hilton_Los_Angeles_International_Airport-Los_Angeles_Californ.html</t>
@@ -2188,43 +2440,47 @@
       <c r="A2" t="n">
         <v>66481</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>194463</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2248,50 +2504,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66481</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>194464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2311,50 +2571,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66481</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>37261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2368,50 +2632,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66481</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>194465</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2435,50 +2703,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66481</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>194466</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2492,50 +2764,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66481</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>118140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2553,50 +2829,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66481</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>194467</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2616,50 +2896,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66481</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>194468</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2671,56 +2955,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="X9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66481</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>194469</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2734,50 +3022,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66481</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>18683</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2801,50 +3093,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66481</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>194470</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2868,50 +3164,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66481</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>194471</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2925,50 +3225,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66481</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>88219</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2982,50 +3286,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66481</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>10660</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3049,50 +3357,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66481</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>194472</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3106,50 +3418,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66481</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>194473</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>136</v>
       </c>
-      <c r="K17" t="s">
-        <v>137</v>
-      </c>
-      <c r="L17" t="s">
-        <v>138</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>123</v>
-      </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3163,50 +3479,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66481</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>194474</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3226,50 +3546,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66481</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>194475</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3293,50 +3617,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66481</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>194476</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3350,50 +3678,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66481</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>194477</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3417,50 +3749,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66481</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>194478</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3484,50 +3820,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66481</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>194479</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3551,50 +3891,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66481</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>21060</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3612,56 +3956,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="X24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="Y24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66481</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>194480</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3683,56 +4031,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="X25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="Y25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66481</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>194481</v>
+      </c>
+      <c r="C26" t="s">
+        <v>210</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3746,50 +4098,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66481</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>194482</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3813,50 +4169,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66481</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>194483</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>197</v>
       </c>
-      <c r="K28" t="s">
-        <v>198</v>
-      </c>
-      <c r="L28" t="s">
-        <v>199</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>174</v>
-      </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3874,50 +4234,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66481</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>194484</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="J29" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3937,50 +4301,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66481</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>194485</v>
+      </c>
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="O30" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4000,50 +4368,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66481</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>194486</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4061,50 +4433,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66481</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>194487</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="K32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4120,56 +4496,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="X32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="Y32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66481</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>194488</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="J33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="K33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O33" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4183,50 +4563,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66481</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>194489</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4246,50 +4630,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66481</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>194490</v>
+      </c>
+      <c r="C35" t="s">
+        <v>271</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="J35" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
+        <v>276</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>241</v>
       </c>
-      <c r="L35" t="s">
-        <v>242</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>212</v>
-      </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4303,50 +4691,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66481</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>194491</v>
+      </c>
+      <c r="C36" t="s">
+        <v>278</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="J36" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4370,50 +4762,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66481</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>194492</v>
+      </c>
+      <c r="C37" t="s">
+        <v>284</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O37" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4437,50 +4833,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66481</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>194493</v>
+      </c>
+      <c r="C38" t="s">
+        <v>290</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4498,50 +4898,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>66481</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>194494</v>
+      </c>
+      <c r="C39" t="s">
+        <v>297</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="J39" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="K39" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4557,56 +4961,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="X39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66481</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>194495</v>
+      </c>
+      <c r="C40" t="s">
+        <v>306</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4626,50 +5034,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66481</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>194496</v>
+      </c>
+      <c r="C41" t="s">
+        <v>312</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="J41" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4693,50 +5105,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66481</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>22418</v>
+      </c>
+      <c r="C42" t="s">
+        <v>317</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="J42" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="K42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4756,50 +5172,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66481</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>194497</v>
+      </c>
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s">
+        <v>328</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>283</v>
       </c>
-      <c r="J43" t="s">
-        <v>284</v>
-      </c>
-      <c r="K43" t="s">
-        <v>285</v>
-      </c>
-      <c r="L43" t="s">
-        <v>286</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>248</v>
-      </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4823,50 +5243,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>66481</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>8176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>329</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="J44" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="K44" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O44" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -4890,50 +5314,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>66481</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>194498</v>
+      </c>
+      <c r="C45" t="s">
+        <v>335</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="J45" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="K45" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4947,50 +5375,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>66481</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>194499</v>
+      </c>
+      <c r="C46" t="s">
+        <v>341</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="J46" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="K46" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5010,50 +5442,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>66481</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C47" t="s">
+        <v>347</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="J47" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="K47" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="L47" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O47" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5077,50 +5513,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>66481</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>194500</v>
+      </c>
+      <c r="C48" t="s">
+        <v>353</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="J48" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="K48" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O48" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5134,50 +5574,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>66481</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>194501</v>
+      </c>
+      <c r="C49" t="s">
+        <v>359</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="J49" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="K49" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5195,50 +5639,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>66481</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>194502</v>
+      </c>
+      <c r="C50" t="s">
+        <v>365</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="J50" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="K50" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5262,50 +5710,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>66481</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>194503</v>
+      </c>
+      <c r="C51" t="s">
+        <v>371</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="J51" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="K51" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5323,50 +5775,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>66481</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>194504</v>
+      </c>
+      <c r="C52" t="s">
+        <v>378</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="J52" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="K52" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5380,50 +5836,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>66481</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>27452</v>
+      </c>
+      <c r="C53" t="s">
+        <v>384</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="J53" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="K53" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5445,56 +5905,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="X53" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="Y53" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>66481</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>194505</v>
+      </c>
+      <c r="C54" t="s">
+        <v>393</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="J54" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5516,56 +5980,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="X54" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="Y54" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>66481</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>194506</v>
+      </c>
+      <c r="C55" t="s">
+        <v>400</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="J55" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="K55" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5581,56 +6049,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="X55" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="Y55" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>66481</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>194507</v>
+      </c>
+      <c r="C56" t="s">
+        <v>410</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="J56" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="K56" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O56" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5652,56 +6124,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="X56" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="Y56" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>66481</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>194508</v>
+      </c>
+      <c r="C57" t="s">
+        <v>417</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="J57" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="K57" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O57" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5725,50 +6201,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>66481</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>2964</v>
+      </c>
+      <c r="C58" t="s">
+        <v>422</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="J58" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="K58" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5792,50 +6272,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>66481</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>194509</v>
+      </c>
+      <c r="C59" t="s">
+        <v>428</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="J59" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="K59" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5857,56 +6341,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="X59" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="Y59" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>66481</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>194510</v>
+      </c>
+      <c r="C60" t="s">
+        <v>437</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="J60" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="K60" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O60" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5930,50 +6418,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>66481</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>194511</v>
+      </c>
+      <c r="C61" t="s">
+        <v>443</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
       <c r="J61" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="K61" t="s">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="L61" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5997,50 +6489,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>66481</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>8010</v>
+      </c>
+      <c r="C62" t="s">
+        <v>449</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="J62" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6064,41 +6560,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>66481</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>194512</v>
+      </c>
+      <c r="C63" t="s">
+        <v>455</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="J63" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="K63" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="L63" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6115,56 +6615,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="X63" t="s">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="Y63" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>66481</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>42223</v>
+      </c>
+      <c r="C64" t="s">
+        <v>464</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="J64" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="K64" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="L64" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6186,56 +6690,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="X64" t="s">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="Y64" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>66481</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>194513</v>
+      </c>
+      <c r="C65" t="s">
+        <v>470</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="J65" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="K65" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="L65" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6257,56 +6765,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="X65" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="Y65" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>66481</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>2949</v>
+      </c>
+      <c r="C66" t="s">
+        <v>479</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="J66" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
       <c r="K66" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="L66" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6318,56 +6830,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="X66" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="Y66" t="s">
-        <v>422</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>66481</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>12421</v>
+      </c>
+      <c r="C67" t="s">
+        <v>488</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="J67" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="K67" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="L67" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6389,56 +6905,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="X67" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="Y67" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>66481</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>194514</v>
+      </c>
+      <c r="C68" t="s">
+        <v>495</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="J68" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="K68" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="L68" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6450,56 +6970,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="X68" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="Y68" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>66481</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>194515</v>
+      </c>
+      <c r="C69" t="s">
+        <v>502</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>436</v>
+        <v>504</v>
       </c>
       <c r="J69" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="K69" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="L69" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6515,56 +7039,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="X69" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="Y69" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>66481</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>194516</v>
+      </c>
+      <c r="C70" t="s">
+        <v>508</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
       <c r="J70" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="K70" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="L70" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6586,56 +7114,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="X70" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="Y70" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>66481</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>194517</v>
+      </c>
+      <c r="C71" t="s">
+        <v>515</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>446</v>
+        <v>516</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="J71" t="s">
-        <v>448</v>
+        <v>518</v>
       </c>
       <c r="K71" t="s">
-        <v>449</v>
+        <v>519</v>
       </c>
       <c r="L71" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O71" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6657,56 +7189,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="X71" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="Y71" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>66481</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>194518</v>
+      </c>
+      <c r="C72" t="s">
+        <v>522</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="J72" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="K72" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="L72" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="O72" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6728,56 +7264,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="X72" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="Y72" t="s">
-        <v>457</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>66481</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>194519</v>
+      </c>
+      <c r="C73" t="s">
+        <v>529</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>458</v>
+        <v>530</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="J73" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="K73" t="s">
-        <v>460</v>
+        <v>532</v>
       </c>
       <c r="L73" t="s">
-        <v>461</v>
+        <v>533</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6795,56 +7335,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="X73" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="Y73" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>66481</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>194520</v>
+      </c>
+      <c r="C74" t="s">
+        <v>536</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>465</v>
+        <v>538</v>
       </c>
       <c r="J74" t="s">
-        <v>466</v>
+        <v>539</v>
       </c>
       <c r="K74" t="s">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="L74" t="s">
-        <v>468</v>
+        <v>541</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O74" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -6868,50 +7412,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>468</v>
+        <v>541</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>66481</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>140421</v>
+      </c>
+      <c r="C75" t="s">
+        <v>542</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>469</v>
+        <v>543</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="J75" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="K75" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="L75" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="n">
@@ -6929,50 +7477,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>66481</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>19814</v>
+      </c>
+      <c r="C76" t="s">
+        <v>549</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="J76" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="K76" t="s">
-        <v>478</v>
+        <v>553</v>
       </c>
       <c r="L76" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -6996,50 +7548,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>66481</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>194521</v>
+      </c>
+      <c r="C77" t="s">
+        <v>555</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
       <c r="J77" t="s">
-        <v>482</v>
+        <v>558</v>
       </c>
       <c r="K77" t="s">
-        <v>483</v>
+        <v>559</v>
       </c>
       <c r="L77" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O77" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7063,50 +7619,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>66481</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>194522</v>
+      </c>
+      <c r="C78" t="s">
+        <v>561</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>485</v>
+        <v>562</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>486</v>
+        <v>563</v>
       </c>
       <c r="J78" t="s">
-        <v>487</v>
+        <v>564</v>
       </c>
       <c r="K78" t="s">
-        <v>488</v>
+        <v>565</v>
       </c>
       <c r="L78" t="s">
-        <v>489</v>
+        <v>566</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O78" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7126,50 +7686,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>490</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>66481</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>4734</v>
+      </c>
+      <c r="C79" t="s">
+        <v>568</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="J79" t="s">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="K79" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="L79" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7193,50 +7757,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>66481</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>194523</v>
+      </c>
+      <c r="C80" t="s">
+        <v>575</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>497</v>
+        <v>576</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="J80" t="s">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="K80" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
       <c r="L80" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -7248,56 +7816,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
       <c r="X80" t="s">
-        <v>503</v>
+        <v>582</v>
       </c>
       <c r="Y80" t="s">
-        <v>504</v>
+        <v>583</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>66481</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>194524</v>
+      </c>
+      <c r="C81" t="s">
+        <v>584</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="J81" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
       <c r="K81" t="s">
-        <v>508</v>
+        <v>588</v>
       </c>
       <c r="L81" t="s">
-        <v>509</v>
+        <v>589</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7321,50 +7893,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>509</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>66481</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>194525</v>
+      </c>
+      <c r="C82" t="s">
+        <v>590</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>510</v>
+        <v>591</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>511</v>
+        <v>592</v>
       </c>
       <c r="J82" t="s">
-        <v>512</v>
+        <v>593</v>
       </c>
       <c r="K82" t="s">
-        <v>513</v>
+        <v>594</v>
       </c>
       <c r="L82" t="s">
-        <v>514</v>
+        <v>595</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O82" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="n">
@@ -7382,50 +7958,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>515</v>
+        <v>596</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>66481</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>194526</v>
+      </c>
+      <c r="C83" t="s">
+        <v>597</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>516</v>
+        <v>598</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
       <c r="J83" t="s">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="K83" t="s">
-        <v>519</v>
+        <v>601</v>
       </c>
       <c r="L83" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O83" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -7439,50 +8019,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>521</v>
+        <v>603</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>66481</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>194527</v>
+      </c>
+      <c r="C84" t="s">
+        <v>604</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>522</v>
+        <v>605</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>523</v>
+        <v>606</v>
       </c>
       <c r="J84" t="s">
-        <v>524</v>
+        <v>607</v>
       </c>
       <c r="K84" t="s">
-        <v>525</v>
+        <v>608</v>
       </c>
       <c r="L84" t="s">
-        <v>526</v>
+        <v>609</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="O84" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -7494,56 +8078,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>527</v>
+        <v>610</v>
       </c>
       <c r="X84" t="s">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="Y84" t="s">
-        <v>529</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>66481</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C85" t="s">
+        <v>613</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>530</v>
+        <v>614</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>531</v>
+        <v>615</v>
       </c>
       <c r="J85" t="s">
-        <v>532</v>
+        <v>616</v>
       </c>
       <c r="K85" t="s">
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="L85" t="s">
+        <v>618</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
         <v>534</v>
       </c>
-      <c r="M85" t="n">
-        <v>5</v>
-      </c>
-      <c r="N85" t="s">
-        <v>462</v>
-      </c>
       <c r="O85" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -7561,7 +8149,7 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>535</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
